--- a/Page/网页/网站导航.xlsx
+++ b/Page/网页/网站导航.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1548">
   <si>
     <t>id</t>
   </si>
@@ -3285,6 +3285,1974 @@
   </si>
   <si>
     <t>全球知名的游戏平台，提供大量游戏下载和社区交流功能</t>
+  </si>
+  <si>
+    <t>豆包 APP</t>
+  </si>
+  <si>
+    <t>https://doubao.com/download.html</t>
+  </si>
+  <si>
+    <t>集多种 AI 功能于一体，可在移动端便捷使用，支持语音交互等</t>
+  </si>
+  <si>
+    <t>天工</t>
+  </si>
+  <si>
+    <t>https://tiangong.cn/</t>
+  </si>
+  <si>
+    <t>可用于文本生成、知识问答等，提供多种创作和学习辅助功能</t>
+  </si>
+  <si>
+    <t>通义听悟</t>
+  </si>
+  <si>
+    <t>https://tingwu.aliyun.com/</t>
+  </si>
+  <si>
+    <t>专注于语音转文字及相关处理，可用于学习记录、会议纪要等</t>
+  </si>
+  <si>
+    <t>299 素材网</t>
+  </si>
+  <si>
+    <t>https://www.299sucai.com/</t>
+  </si>
+  <si>
+    <t>涵盖考研、考证、软件、素材、影视等各类资源</t>
+  </si>
+  <si>
+    <t>B 站知识区</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/knowledge/</t>
+  </si>
+  <si>
+    <t>有大量免费的大神教程、公开课等，涵盖各领域知识</t>
+  </si>
+  <si>
+    <t>中国大学视频公开课</t>
+  </si>
+  <si>
+    <t>http://open.chaoxing.com/</t>
+  </si>
+  <si>
+    <t>由教育部和高校联合主办，提供各类大学公开课视频</t>
+  </si>
+  <si>
+    <t>网易公开课</t>
+  </si>
+  <si>
+    <t>https://open.163.com/</t>
+  </si>
+  <si>
+    <t>汇聚国内外名校课程、TED 演讲等优质学习资源</t>
+  </si>
+  <si>
+    <t>中国高校人文社会科学信息网</t>
+  </si>
+  <si>
+    <t>http://www.sinoss.net/</t>
+  </si>
+  <si>
+    <t>提供人文社会科学领域的学术资源、研究成果等</t>
+  </si>
+  <si>
+    <t>科学网</t>
+  </si>
+  <si>
+    <t>https://www.sciencenet.cn/</t>
+  </si>
+  <si>
+    <t>涵盖科学新闻、科研进展、学术交流等内容，适合科研学习</t>
+  </si>
+  <si>
+    <t>河北教育资源公共服务平台</t>
+  </si>
+  <si>
+    <t>https://www.hbeducloud.com/</t>
+  </si>
+  <si>
+    <t>提供河北省中小学教育资源，包括教学课件、试题等</t>
+  </si>
+  <si>
+    <t>陕西教育资源公共服务平台</t>
+  </si>
+  <si>
+    <t>https://www.sneduyun.com/</t>
+  </si>
+  <si>
+    <t>整合陕西省各类教育资源，服务于中小学教学</t>
+  </si>
+  <si>
+    <t>中国物理学会科普网</t>
+  </si>
+  <si>
+    <t>http://www.cps-net.org.cn/</t>
+  </si>
+  <si>
+    <t>有物理学科的科普知识、实验介绍、学术动态等内容</t>
+  </si>
+  <si>
+    <t>中国化学会</t>
+  </si>
+  <si>
+    <t>https://www.chemsoc.org.cn/</t>
+  </si>
+  <si>
+    <t>提供化学领域的科普、科研成果、学术活动等信息</t>
+  </si>
+  <si>
+    <t>中国生物多样性信息系统</t>
+  </si>
+  <si>
+    <t>http://www.cbdio.com/</t>
+  </si>
+  <si>
+    <t>包含生物多样性相关的知识、数据、研究成果等</t>
+  </si>
+  <si>
+    <t>对啊网</t>
+  </si>
+  <si>
+    <t>https://www.duia.com/</t>
+  </si>
+  <si>
+    <t>提供会计、教师、英语等各类考证培训课程和名师讲解</t>
+  </si>
+  <si>
+    <t>对啊课堂</t>
+  </si>
+  <si>
+    <t>https://www.duia.com/classroom</t>
+  </si>
+  <si>
+    <t>涵盖多种职业技能和考证培训课程，有在线直播和录播</t>
+  </si>
+  <si>
+    <t>设计导航网</t>
+  </si>
+  <si>
+    <t>https://www.designdh.com/</t>
+  </si>
+  <si>
+    <t>汇集设计相关的素材、工具、教程等网站</t>
+  </si>
+  <si>
+    <t>产品经理导航</t>
+  </si>
+  <si>
+    <t>https://www.pm265.com/</t>
+  </si>
+  <si>
+    <t>为产品经理提供各类资源，包括工具、文档、资讯等</t>
+  </si>
+  <si>
+    <t>GitChat</t>
+  </si>
+  <si>
+    <t>https://gitbook.cn/</t>
+  </si>
+  <si>
+    <t>技术交流平台，有技术文章、问答和付费课程</t>
+  </si>
+  <si>
+    <t>开源中国社区</t>
+  </si>
+  <si>
+    <t>https://my.oschina.net/blog</t>
+  </si>
+  <si>
+    <t>程序员交流社区，可分享技术经验、交流项目</t>
+  </si>
+  <si>
+    <t>Stack Overflow 中文站</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com.cn/</t>
+  </si>
+  <si>
+    <t>Stack Overflow 的中文版本，方便国内程序员交流编程问题</t>
+  </si>
+  <si>
+    <t>万彩办公大师</t>
+  </si>
+  <si>
+    <t>http://www.wofficebox.com/</t>
+  </si>
+  <si>
+    <t>集成 60 多种工具，包括 PDF 工具、格式转换、图片处理等</t>
+  </si>
+  <si>
+    <t>PDF24 工具箱</t>
+  </si>
+  <si>
+    <t>https://tools.pdf24.org/zh/</t>
+  </si>
+  <si>
+    <t>提供多种 PDF 处理工具，如合并、拆分、转换等</t>
+  </si>
+  <si>
+    <t>PC6 下载站</t>
+  </si>
+  <si>
+    <t>https://www.pc6.com/</t>
+  </si>
+  <si>
+    <t>提供各类软件、游戏下载，资源丰富</t>
+  </si>
+  <si>
+    <t>沙沙野</t>
+  </si>
+  <si>
+    <t>https://www.sashaye.com/</t>
+  </si>
+  <si>
+    <t>提供高清无版权图片下载，可用于设计、学习等</t>
+  </si>
+  <si>
+    <t>办公资源网</t>
+  </si>
+  <si>
+    <t>https://www.bangongziyuan.com/</t>
+  </si>
+  <si>
+    <t>提供 PPT 模板、Word 文档、Excel 表格等办公素材下载</t>
+  </si>
+  <si>
+    <t>爱素材网</t>
+  </si>
+  <si>
+    <t>https://www.aisucai.com/</t>
+  </si>
+  <si>
+    <t>有设计素材、视频素材、音频素材等多种资源可供下载</t>
+  </si>
+  <si>
+    <t>SvelteKit</t>
+  </si>
+  <si>
+    <t>https://kit.svelte.dev/</t>
+  </si>
+  <si>
+    <t>基于 Svelte 的全栈框架，用于构建快速、高效的 Web 应用</t>
+  </si>
+  <si>
+    <t>Remix</t>
+  </si>
+  <si>
+    <t>https://remix.run/</t>
+  </si>
+  <si>
+    <t>用于构建高性能 Web 应用的框架，注重路由和数据加载</t>
+  </si>
+  <si>
+    <t>Qwik</t>
+  </si>
+  <si>
+    <t>https://qwik.builder.io/</t>
+  </si>
+  <si>
+    <t>轻量级前端框架，具有快速加载和高效渲染的特点</t>
+  </si>
+  <si>
+    <t>FastAPI</t>
+  </si>
+  <si>
+    <t>https://fastapi.tiangong.top/</t>
+  </si>
+  <si>
+    <t>基于 Python 的快速 Web 框架，用于构建 API</t>
+  </si>
+  <si>
+    <t>NestJS</t>
+  </si>
+  <si>
+    <t>https://nestjs.com/</t>
+  </si>
+  <si>
+    <t>基于 Node.js 的后端框架，用于构建可扩展的企业级应用</t>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+  </si>
+  <si>
+    <t>https://spring.io/projects/spring - cloud</t>
+  </si>
+  <si>
+    <t>用于构建微服务架构的 Spring 框架集合</t>
+  </si>
+  <si>
+    <t>计蒜客竞赛</t>
+  </si>
+  <si>
+    <t>https://www.jisuanke.com/contest</t>
+  </si>
+  <si>
+    <t>举办各类算法竞赛，可锻炼算法能力和编程技巧</t>
+  </si>
+  <si>
+    <t>洛谷</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/</t>
+  </si>
+  <si>
+    <t>有大量算法题目和题解，适合算法初学者和进阶者</t>
+  </si>
+  <si>
+    <t>安全客</t>
+  </si>
+  <si>
+    <t>https://www.anquanke.com/</t>
+  </si>
+  <si>
+    <t>分享网络安全技术文章、漏洞分析、安全资讯等</t>
+  </si>
+  <si>
+    <t>漏洞银行</t>
+  </si>
+  <si>
+    <t>https://www.bugbank.cn/</t>
+  </si>
+  <si>
+    <t>提供漏洞报告、安全测试等服务，可学习安全技术和漏洞挖掘方法</t>
+  </si>
+  <si>
+    <t>BOSS 直聘学院</t>
+  </si>
+  <si>
+    <t>提供职场技能提升、求职面试技巧等相关课程和内容</t>
+  </si>
+  <si>
+    <t>猎聘学习</t>
+  </si>
+  <si>
+    <t>https://learning.liepin.com/</t>
+  </si>
+  <si>
+    <t>专注于职场人的职业发展，有各类职场技能培训课程</t>
+  </si>
+  <si>
+    <t>51CTO 学堂</t>
+  </si>
+  <si>
+    <t>https://edu.51cto.com/</t>
+  </si>
+  <si>
+    <t>提供 IT 技能、项目管理等职场相关的在线课程</t>
+  </si>
+  <si>
+    <t>考研帮论坛</t>
+  </si>
+  <si>
+    <t>https://bbs.kaoyan.com/</t>
+  </si>
+  <si>
+    <t>考研交流论坛，可获取考研经验、资料和最新资讯</t>
+  </si>
+  <si>
+    <t>QZZN 公务员考试论坛</t>
+  </si>
+  <si>
+    <t>https://bbs.qzzn.com/</t>
+  </si>
+  <si>
+    <t>公务员考试交流论坛，有考试经验分享、真题讨论等内容</t>
+  </si>
+  <si>
+    <t>英国文化教育协会</t>
+  </si>
+  <si>
+    <t>https://www.britishcouncil.cn/english/online</t>
+  </si>
+  <si>
+    <t>提供成人、儿童、青少年等不同群体的英语学习资源</t>
+  </si>
+  <si>
+    <t>EF 英孚教育在线课程</t>
+  </si>
+  <si>
+    <t>https://www.ef.com.cn/englishfirst/online-courses/</t>
+  </si>
+  <si>
+    <t>有专业的英语在线课程，涵盖各类英语技能培训</t>
+  </si>
+  <si>
+    <t>新概念英语网</t>
+  </si>
+  <si>
+    <t>https://www.xgnyy.com/</t>
+  </si>
+  <si>
+    <t>提供新概念英语的学习资料、课程讲解、听力下载等</t>
+  </si>
+  <si>
+    <t>万彩办公大师在线版</t>
+  </si>
+  <si>
+    <t>https://www.wofficebox.com/online/</t>
+  </si>
+  <si>
+    <t>无需安装，在线即可使用多种办公工具</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/</t>
+  </si>
+  <si>
+    <t>用于 UI 设计、原型图制作，实时协作功能强大</t>
+  </si>
+  <si>
+    <t>稿定抠图</t>
+  </si>
+  <si>
+    <t>https://www.gaoding.com/</t>
+  </si>
+  <si>
+    <t>智能去除图片背景，算法精准，速度快</t>
+  </si>
+  <si>
+    <t>NiceTool</t>
+  </si>
+  <si>
+    <t>https://www.egouz.com/</t>
+  </si>
+  <si>
+    <t>集合了 200 多种工具，包括文本处理、文件转换等</t>
+  </si>
+  <si>
+    <t>Kalvin 在线工具网</t>
+  </si>
+  <si>
+    <t>https://tools.kalvinbg.cn/</t>
+  </si>
+  <si>
+    <t>提供图片风格转换、文字识别、视频下载等功能</t>
+  </si>
+  <si>
+    <t>Tubi TV</t>
+  </si>
+  <si>
+    <t>https://tubitv.com/</t>
+  </si>
+  <si>
+    <t>完全合法的免费视频平台，提供大量授权电影与剧集</t>
+  </si>
+  <si>
+    <t>Pluto TV</t>
+  </si>
+  <si>
+    <t>https://pluto.tv/</t>
+  </si>
+  <si>
+    <t>有直播频道与点播库，电影种类丰富，适合找旧片和经典电影</t>
+  </si>
+  <si>
+    <t>Crackle</t>
+  </si>
+  <si>
+    <t>https://www.crackle.com/</t>
+  </si>
+  <si>
+    <t>由索尼支持的免费影视站，内容包括电影、纪录片和部分剧集</t>
+  </si>
+  <si>
+    <t>Popcornflix</t>
+  </si>
+  <si>
+    <t>https://www.popcornflix.com/</t>
+  </si>
+  <si>
+    <t>提供免费的广告支持影片，视频库覆盖多种影视类型</t>
+  </si>
+  <si>
+    <t>Vudu 免费专区</t>
+  </si>
+  <si>
+    <t>https://www.vudu.com/content/movies/free</t>
+  </si>
+  <si>
+    <t>有免费的广告支持影片，涵盖多种影视类型</t>
+  </si>
+  <si>
+    <t>爱问共享资料</t>
+  </si>
+  <si>
+    <t>https://ishare.iask.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>有各种书籍、文档、资料等可供下载和分享</t>
+  </si>
+  <si>
+    <t>免费电子书网</t>
+  </si>
+  <si>
+    <t>https://www.freebook.cn/</t>
+  </si>
+  <si>
+    <t>提供大量免费电子书下载，涵盖多个领域</t>
+  </si>
+  <si>
+    <t>书格</t>
+  </si>
+  <si>
+    <t>https://new.shuge.org/</t>
+  </si>
+  <si>
+    <t>主要分享古籍善本、珍本等电子版书籍</t>
+  </si>
+  <si>
+    <t>澎湃新闻</t>
+  </si>
+  <si>
+    <t>https://www.thepaper.cn/</t>
+  </si>
+  <si>
+    <t>以深度报道和时事评论为主的新闻资讯平台</t>
+  </si>
+  <si>
+    <t>界面新闻</t>
+  </si>
+  <si>
+    <t>https://www.jiemian.com/</t>
+  </si>
+  <si>
+    <t>提供财经、时政、娱乐等多领域的新闻资讯和分析</t>
+  </si>
+  <si>
+    <t>豆包学术</t>
+  </si>
+  <si>
+    <t>https://doubao.com/academic/</t>
+  </si>
+  <si>
+    <t>专注于学术领域的 AI 工具，可辅助文献检索、论文写作等</t>
+  </si>
+  <si>
+    <t>智谱清言学术版</t>
+  </si>
+  <si>
+    <t>https://academic.tiangong.cn/</t>
+  </si>
+  <si>
+    <t>提供学术知识问答、文献综述生成等功能</t>
+  </si>
+  <si>
+    <t>OpenAI API</t>
+  </si>
+  <si>
+    <t>https://openai.com/api/</t>
+  </si>
+  <si>
+    <t>可调用 OpenAI 的模型接口，进行各种 AI 相关的开发和应用</t>
+  </si>
+  <si>
+    <t>与全球顶尖大学合作，提供免费或付费的在线课程，证书可增值简历</t>
+  </si>
+  <si>
+    <t>提供哈佛、MIT 等名校课程，支持系统化学习编程、商业等技能</t>
+  </si>
+  <si>
+    <t>中国高校外语教学资源网</t>
+  </si>
+  <si>
+    <t>https://ebs.unipus.cn/</t>
+  </si>
+  <si>
+    <t>提供外语教学资源、课程、师资培训等内容</t>
+  </si>
+  <si>
+    <t>超星尔雅学术视频</t>
+  </si>
+  <si>
+    <t>https://video.chaoxing.com/</t>
+  </si>
+  <si>
+    <t>有丰富的学术讲座、课程视频，涵盖多个学科领域</t>
+  </si>
+  <si>
+    <t>医学教育网</t>
+  </si>
+  <si>
+    <t>https://www.med66.com/</t>
+  </si>
+  <si>
+    <t>提供医学考试培训、医学继续教育等课程</t>
+  </si>
+  <si>
+    <t>法律教育网</t>
+  </si>
+  <si>
+    <t>https://www.chinalawedu.com/</t>
+  </si>
+  <si>
+    <t>专注于法律职业资格考试等法律相关培训</t>
+  </si>
+  <si>
+    <t>福建教育资源公共服务平台</t>
+  </si>
+  <si>
+    <t>https://www.fjedu.cn/</t>
+  </si>
+  <si>
+    <t>提供福建省中小学教育资源和服务</t>
+  </si>
+  <si>
+    <t>山东教育资源公共服务平台</t>
+  </si>
+  <si>
+    <t>https://www.sdei.edu.cn/</t>
+  </si>
+  <si>
+    <t>整合山东省的教育资源，服务于教学和学习</t>
+  </si>
+  <si>
+    <t>中国天文科普网</t>
+  </si>
+  <si>
+    <t>http://www.astron.ac.cn/</t>
+  </si>
+  <si>
+    <t>提供天文学科普知识、天文观测指南等内容</t>
+  </si>
+  <si>
+    <t>中国地质学会科普网</t>
+  </si>
+  <si>
+    <t>http://www.gmc.org.cn/</t>
+  </si>
+  <si>
+    <t>有地质学相关的科普文章、图片、视频等资源</t>
+  </si>
+  <si>
+    <t>中国环境科学学会</t>
+  </si>
+  <si>
+    <t>https://www.chinacses.org/</t>
+  </si>
+  <si>
+    <t>提供环境科学领域的科普、研究成果等信息</t>
+  </si>
+  <si>
+    <t>提供多种类型的课程，包括英语培训、K12 教育等</t>
+  </si>
+  <si>
+    <t>专注于 K12 教育，有在线直播和录播课程</t>
+  </si>
+  <si>
+    <t>设计达人导航</t>
+  </si>
+  <si>
+    <t>https://www.sjdr.com/</t>
+  </si>
+  <si>
+    <t>汇集设计相关的网站，包括设计教程、素材下载等</t>
+  </si>
+  <si>
+    <t>运营导航</t>
+  </si>
+  <si>
+    <t>https://www.yunyingdaohang.com/</t>
+  </si>
+  <si>
+    <t>为运营人员提供各类资源，如数据分析工具、营销案例等</t>
+  </si>
+  <si>
+    <t>Coding.net</t>
+  </si>
+  <si>
+    <t>https://coding.net/</t>
+  </si>
+  <si>
+    <t>提供代码托管、项目管理等服务</t>
+  </si>
+  <si>
+    <t>OSCHINA 开源社区</t>
+  </si>
+  <si>
+    <t>国内知名的开源技术社区，有丰富的开源项目和技术交流</t>
+  </si>
+  <si>
+    <t>SegmentFault 思否</t>
+  </si>
+  <si>
+    <t>技术问答和交流社区，涵盖前端、后端等多个技术领域</t>
+  </si>
+  <si>
+    <t>腾讯应用宝</t>
+  </si>
+  <si>
+    <t>https://sj.qq.com/</t>
+  </si>
+  <si>
+    <t>提供大量手机应用的下载</t>
+  </si>
+  <si>
+    <t>华为应用市场</t>
+  </si>
+  <si>
+    <t>https://appgallery.huawei.com/</t>
+  </si>
+  <si>
+    <t>华为手机的应用下载平台，资源丰富</t>
+  </si>
+  <si>
+    <t>PP 助手</t>
+  </si>
+  <si>
+    <t>https://www.25pp.com/</t>
+  </si>
+  <si>
+    <t>可下载手机应用、游戏、壁纸等资源</t>
+  </si>
+  <si>
+    <t>Pexels</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/</t>
+  </si>
+  <si>
+    <t>提供免费的高清图片和视频素材</t>
+  </si>
+  <si>
+    <t>Unsplash</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/</t>
+  </si>
+  <si>
+    <t>有大量高质量的无版权图片可供下载</t>
+  </si>
+  <si>
+    <t>觅知网</t>
+  </si>
+  <si>
+    <t>https://www.51miz.com/</t>
+  </si>
+  <si>
+    <t>提供 PPT 模板、Word 文档、Excel 表格等办公资源下载</t>
+  </si>
+  <si>
+    <t>Alpine.js</t>
+  </si>
+  <si>
+    <t>https://alpinejs.dev/</t>
+  </si>
+  <si>
+    <t>轻量级 JavaScript 框架，用于增强 HTML 的交互性</t>
+  </si>
+  <si>
+    <t>Preact</t>
+  </si>
+  <si>
+    <t>https://preactjs.com/</t>
+  </si>
+  <si>
+    <t>快速、轻量化的 React 替代方案</t>
+  </si>
+  <si>
+    <t>Lit</t>
+  </si>
+  <si>
+    <t>https://lit.dev/</t>
+  </si>
+  <si>
+    <t>用于构建快速、轻量级 Web 组件的库</t>
+  </si>
+  <si>
+    <t>https://flask.palletsprojects.com/</t>
+  </si>
+  <si>
+    <t>轻量级的 Python Web 框架</t>
+  </si>
+  <si>
+    <t>基于 Node.js 的流行 Web 应用框架</t>
+  </si>
+  <si>
+    <t>https://spring.io/projects/spring-boot</t>
+  </si>
+  <si>
+    <t>简化 Spring 应用开发的框架</t>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/</t>
+  </si>
+  <si>
+    <t>一个知名的算法竞赛平台，有大量算法题目和比赛</t>
+  </si>
+  <si>
+    <t>AtCoder</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/</t>
+  </si>
+  <si>
+    <t>日本的算法竞赛平台，适合算法爱好者练习</t>
+  </si>
+  <si>
+    <t>红黑联盟</t>
+  </si>
+  <si>
+    <t>https://bbs.2cto.com/</t>
+  </si>
+  <si>
+    <t>网络安全技术论坛，有很多技术讨论和分享</t>
+  </si>
+  <si>
+    <t>T00ls</t>
+  </si>
+  <si>
+    <t>https://www.t00ls.net/</t>
+  </si>
+  <si>
+    <t>大牛聚集地，入侵渗透方面的技术交流平台</t>
+  </si>
+  <si>
+    <t>看雪安全论坛</t>
+  </si>
+  <si>
+    <t>https://bbs.pediy.com/</t>
+  </si>
+  <si>
+    <t>专注于网络安全的开发者社区</t>
+  </si>
+  <si>
+    <t>https://learning.linkedin.com/</t>
+  </si>
+  <si>
+    <t>提供各种职场技能和专业发展课程</t>
+  </si>
+  <si>
+    <t>三茅人力资源网</t>
+  </si>
+  <si>
+    <t>https://www.hrloo.com/</t>
+  </si>
+  <si>
+    <t>专注于人力资源领域的学习和交流平台</t>
+  </si>
+  <si>
+    <t>建筑英才网学习平台</t>
+  </si>
+  <si>
+    <t>https://www.buildhr.com/study.html</t>
+  </si>
+  <si>
+    <t>提供建筑行业的职业技能培训课程</t>
+  </si>
+  <si>
+    <t>https://www.fenbi.com/</t>
+  </si>
+  <si>
+    <t>提供考研、考公等考试的在线课程和题库</t>
+  </si>
+  <si>
+    <t>华图在线</t>
+  </si>
+  <si>
+    <t>https://v.huatu.com/</t>
+  </si>
+  <si>
+    <t>专注于公务员考试、事业单位招聘等培训</t>
+  </si>
+  <si>
+    <t>提供英语学习课程、资料下载等服务</t>
+  </si>
+  <si>
+    <t>有英语单词、听力、阅读等学习功能</t>
+  </si>
+  <si>
+    <t>PDFelement</t>
+  </si>
+  <si>
+    <t>https://www.wondershare.cn/pdfelement/</t>
+  </si>
+  <si>
+    <t>功能强大的 PDF 编辑软件，支持多种操作</t>
+  </si>
+  <si>
+    <t>WPS 在线</t>
+  </si>
+  <si>
+    <t>https://www.wps.cn/</t>
+  </si>
+  <si>
+    <t>可在线编辑 Word、Excel、PPT 等文档</t>
+  </si>
+  <si>
+    <t>石墨文档</t>
+  </si>
+  <si>
+    <t>https://shimo.im/</t>
+  </si>
+  <si>
+    <t>支持多人协作的在线文档编辑平台</t>
+  </si>
+  <si>
+    <t>在线文档、表格、幻灯片编辑工具，支持协作</t>
+  </si>
+  <si>
+    <t>IMDb</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>全球知名的电影数据库，有电影评分、剧情介绍等信息</t>
+  </si>
+  <si>
+    <t>烂番茄</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/</t>
+  </si>
+  <si>
+    <t>提供电影、电视剧的评分和评论</t>
+  </si>
+  <si>
+    <t>豆瓣电影</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/</t>
+  </si>
+  <si>
+    <t>国内知名的电影评分和评论平台</t>
+  </si>
+  <si>
+    <t>国学大师网</t>
+  </si>
+  <si>
+    <t>https://www.guoxuedashi.net/</t>
+  </si>
+  <si>
+    <t>有丰富的古籍、国学经典等资源</t>
+  </si>
+  <si>
+    <t>古诗文网</t>
+  </si>
+  <si>
+    <t>https://www.gushiwen.org/</t>
+  </si>
+  <si>
+    <t>收录大量古诗词、文言文，有注释和赏析</t>
+  </si>
+  <si>
+    <t>书虫网</t>
+  </si>
+  <si>
+    <t>https://www.shuchong.com/</t>
+  </si>
+  <si>
+    <t>提供英语学习相关的书籍资源</t>
+  </si>
+  <si>
+    <t>BBC News</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/</t>
+  </si>
+  <si>
+    <t>英国广播公司新闻网站，提供全球新闻报道</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>https://edition.cnn.com/</t>
+  </si>
+  <si>
+    <t>美国有线电视新闻网，以突发新闻报道见长</t>
+  </si>
+  <si>
+    <t>The New York Times</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/</t>
+  </si>
+  <si>
+    <t>《纽约时报》网站，有深度调查报道和评论</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/</t>
+  </si>
+  <si>
+    <t>路透社网站，提供财经和综合性新闻</t>
+  </si>
+  <si>
+    <t>Boomcatcher</t>
+  </si>
+  <si>
+    <t>https://boomcatcher.com/</t>
+  </si>
+  <si>
+    <t>收录各种有趣、冷门、创意十足的网站</t>
+  </si>
+  <si>
+    <t>Frequency2156</t>
+  </si>
+  <si>
+    <t>https://frequency2156.com/</t>
+  </si>
+  <si>
+    <t>声称与世界末日后的广播站建立连接，有神秘语音信息</t>
+  </si>
+  <si>
+    <t>投胎模拟器</t>
+  </si>
+  <si>
+    <t>https://toutai.cc/</t>
+  </si>
+  <si>
+    <t>可自由设定出生条件，模拟人生</t>
+  </si>
+  <si>
+    <t>Openpuppies</t>
+  </si>
+  <si>
+    <t>https://openpuppies.com/</t>
+  </si>
+  <si>
+    <t>每次刷新都会随机播放小狗短视频</t>
+  </si>
+  <si>
+    <t>小小炼金术师</t>
+  </si>
+  <si>
+    <t>https://littlealchemy.com/</t>
+  </si>
+  <si>
+    <t>通过组合元素合成神奇物品，可学习英语词汇</t>
+  </si>
+  <si>
+    <t>语言学习网站</t>
+  </si>
+  <si>
+    <t>Rosetta Stone</t>
+  </si>
+  <si>
+    <t>https://www.rosettastone.com/</t>
+  </si>
+  <si>
+    <t>提供 24 种语言学习，采用沉浸式教学法，适合二外入门和听说训练</t>
+  </si>
+  <si>
+    <t>多邻国（Duolingo）</t>
+  </si>
+  <si>
+    <t>https://www.duolingo.com/</t>
+  </si>
+  <si>
+    <t>支持 40 多种语言，以游戏化方式学习，适合碎片化时间巩固基础</t>
+  </si>
+  <si>
+    <t>Babbel</t>
+  </si>
+  <si>
+    <t>https://www.babbel.com/</t>
+  </si>
+  <si>
+    <t>专注实用对话教学，课程涵盖多场景，每节课 10-15 分钟适配忙碌人群</t>
+  </si>
+  <si>
+    <t>沪江网校</t>
+  </si>
+  <si>
+    <t>https://class.hujiang.com/</t>
+  </si>
+  <si>
+    <t>提供多语种系统课程，包括日语、韩语、法语等，支持直播和录播学习</t>
+  </si>
+  <si>
+    <t>有道精品课</t>
+  </si>
+  <si>
+    <t>https://ke.youdao.com/</t>
+  </si>
+  <si>
+    <t>涵盖英语、小语种等语言课程，有专项语法、口语、考级培训</t>
+  </si>
+  <si>
+    <t>每日英语听力</t>
+  </si>
+  <si>
+    <t>https://dict.eudic.net/tingli/</t>
+  </si>
+  <si>
+    <t>海量英语听力素材，支持分级学习，可匹配不同水平需求</t>
+  </si>
+  <si>
+    <t>德语学习网</t>
+  </si>
+  <si>
+    <t>https://www.deyuabc.com/</t>
+  </si>
+  <si>
+    <t>专注德语教学，提供入门到进阶课程，包含语法、口语、考级内容</t>
+  </si>
+  <si>
+    <t>日语学习网</t>
+  </si>
+  <si>
+    <t>https://www.jpstudy.cn/</t>
+  </si>
+  <si>
+    <t>整合日语入门、N1-N5 考级、动漫日语等资源，适合兴趣和备考</t>
+  </si>
+  <si>
+    <t>乐器音乐学习</t>
+  </si>
+  <si>
+    <t>来音音乐教育官网</t>
+  </si>
+  <si>
+    <t>https://www.quthing.com/#/</t>
+  </si>
+  <si>
+    <t>涵盖钢琴、吉他、古筝等 30 多种乐器学习，有 AI 陪练、乐理教程和真人 1v1 课</t>
+  </si>
+  <si>
+    <t>懂音律</t>
+  </si>
+  <si>
+    <t>https://www.quthing.com/dongyinlv/</t>
+  </si>
+  <si>
+    <t>全乐器免费数字乐谱共享平台，提供陪练功能和乐理知识学习</t>
+  </si>
+  <si>
+    <t>开嗓练声</t>
+  </si>
+  <si>
+    <t>https://www.quthing.com/kaisang/</t>
+  </si>
+  <si>
+    <t>声乐学习专用平台，含音阶练习、视唱练耳、音调仪等功能</t>
+  </si>
+  <si>
+    <t>弹琴吧</t>
+  </si>
+  <si>
+    <t>https://www.tan8.com/</t>
+  </si>
+  <si>
+    <t>提供钢琴、吉他等乐器的免费曲谱和视频教程，支持在线跟弹</t>
+  </si>
+  <si>
+    <t>中国音乐学院考级网</t>
+  </si>
+  <si>
+    <t>https://www.ccom.edu.cn/kaoji/</t>
+  </si>
+  <si>
+    <t>发布乐器考级标准、曲目库和备考指导，适合专业提升</t>
+  </si>
+  <si>
+    <t>吉他社</t>
+  </si>
+  <si>
+    <t>https://www.jitashe.org/</t>
+  </si>
+  <si>
+    <t>吉他学习资源平台，有曲谱、和弦教学、弹唱视频等</t>
+  </si>
+  <si>
+    <t>摄影学习网站</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>https://1x.com/</t>
+  </si>
+  <si>
+    <t>全球严格筛选的艺术照片库，可观摩优质作品提升审美</t>
+  </si>
+  <si>
+    <t>国家地理（National Geographic）</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/</t>
+  </si>
+  <si>
+    <t>生态自然与地理风光摄影宝库，适合风光摄影爱好者学习</t>
+  </si>
+  <si>
+    <t>玛格南图片社（MAGNUMPHOTOS）</t>
+  </si>
+  <si>
+    <t>https://www.magnumphotos.com/</t>
+  </si>
+  <si>
+    <t>汇集顶尖摄影师作品，以新闻纪实摄影为主，适合人文摄影学习</t>
+  </si>
+  <si>
+    <t>摄影之友</t>
+  </si>
+  <si>
+    <t>https://www.fotomen.cn/</t>
+  </si>
+  <si>
+    <t>含 3000 + 篇摄影教程，涵盖零基础、前期拍摄、后期修图等板块</t>
+  </si>
+  <si>
+    <t>图虫网</t>
+  </si>
+  <si>
+    <t>https://tuchong.com/</t>
+  </si>
+  <si>
+    <t>摄影社区兼学习平台，有大量前后期教程，适合入门积累</t>
+  </si>
+  <si>
+    <t>色影无忌论坛</t>
+  </si>
+  <si>
+    <t>https://www.xitek.com/</t>
+  </si>
+  <si>
+    <t>老牌摄影门户网站，论坛含海量优质教程和技术讨论</t>
+  </si>
+  <si>
+    <t>绘画学习网站</t>
+  </si>
+  <si>
+    <t>Skillshare</t>
+  </si>
+  <si>
+    <t>https://www.skillshare.com/</t>
+  </si>
+  <si>
+    <t>提供插画、水彩、数字绘画等创意课程，由行业专家授课</t>
+  </si>
+  <si>
+    <t>站酷高高手</t>
+  </si>
+  <si>
+    <t>https://gaogao.sucaihuo.com/</t>
+  </si>
+  <si>
+    <t>含绘画、设计等视频教程，有免费优质内容，适合系统学习</t>
+  </si>
+  <si>
+    <t>ArtStation</t>
+  </si>
+  <si>
+    <t>https://www.artstation.com/</t>
+  </si>
+  <si>
+    <t>全球数字艺术平台，可欣赏优秀绘画作品，获取创作灵感和技巧</t>
+  </si>
+  <si>
+    <t>画吧</t>
+  </si>
+  <si>
+    <t>https://www.huaba.me/</t>
+  </si>
+  <si>
+    <t>支持在线绘画创作，有新手教程、绘画挑战和作品交流社区</t>
+  </si>
+  <si>
+    <t>美术宝 1 对 1</t>
+  </si>
+  <si>
+    <t>https://www.meishubao.com/</t>
+  </si>
+  <si>
+    <t>提供少儿到成人的绘画直播课，涵盖素描、油画、漫画等</t>
+  </si>
+  <si>
+    <t>中国美术学院官网学习板块</t>
+  </si>
+  <si>
+    <t>https://www.caa.edu.cn/xyjy/</t>
+  </si>
+  <si>
+    <t>发布美术专业课程资源、创作案例和学术动态</t>
+  </si>
+  <si>
+    <t>职业技能学习</t>
+  </si>
+  <si>
+    <t>新职业在线学习平台</t>
+  </si>
+  <si>
+    <t>https://xzy.mohrss.gov.cn/</t>
+  </si>
+  <si>
+    <t>提供智能制造、现代服务、信息数据类免费课程，含新职业培训</t>
+  </si>
+  <si>
+    <t>国培云</t>
+  </si>
+  <si>
+    <t>https://osta.gpy.org.cn/web.html</t>
+  </si>
+  <si>
+    <t>聚焦职业技能培训，涵盖乡村振兴、职业标准等相关课程</t>
+  </si>
+  <si>
+    <t>51CTO 学院</t>
+  </si>
+  <si>
+    <t>IT 技能专项学习平台，有编程、网络、云计算等课程</t>
+  </si>
+  <si>
+    <t>https://ke.qq.com/</t>
+  </si>
+  <si>
+    <t>涵盖职业技能、兴趣爱好等多类课程，支持直播和录播学习</t>
+  </si>
+  <si>
+    <t>手工 DIY 学习</t>
+  </si>
+  <si>
+    <t>Learn Crafts and DIY Arts</t>
+  </si>
+  <si>
+    <t>http://www.shturl.cc/f61cb8807bd7cfe3cb0d71c47b79f5f8</t>
+  </si>
+  <si>
+    <t>提供纸艺、编织、家居装饰等 DIY 教程，含新手入门和进阶内容</t>
+  </si>
+  <si>
+    <t>手工客</t>
+  </si>
+  <si>
+    <t>https://www.shougongke.com/</t>
+  </si>
+  <si>
+    <t>汇集手工教程、材料购买和作品分享，涵盖折纸、刺绣、陶艺等</t>
+  </si>
+  <si>
+    <t>肉丁网</t>
+  </si>
+  <si>
+    <t>https://www.rouding.com/</t>
+  </si>
+  <si>
+    <t>提供生活手工、创意 DIY、废物利用等教程，适合亲子和兴趣学习</t>
+  </si>
+  <si>
+    <t>书法学习网站</t>
+  </si>
+  <si>
+    <t>书法空间</t>
+  </si>
+  <si>
+    <t>https://www.shufazidian.com/</t>
+  </si>
+  <si>
+    <t>含书法教程、名家作品、碑帖资源，支持毛笔和硬笔书法学习</t>
+  </si>
+  <si>
+    <t>中国书法网</t>
+  </si>
+  <si>
+    <t>https://www.shufa.com/</t>
+  </si>
+  <si>
+    <t>发布书法新闻、教学文章和考级信息，适合系统学习</t>
+  </si>
+  <si>
+    <t>舞蹈学习网站</t>
+  </si>
+  <si>
+    <t>舞蹈网</t>
+  </si>
+  <si>
+    <t>https://www.wudao.com/</t>
+  </si>
+  <si>
+    <t>涵盖古典舞、街舞、拉丁舞等教程，有基础动作和成品舞教学</t>
+  </si>
+  <si>
+    <t>跳吧</t>
+  </si>
+  <si>
+    <t>https://www.tiaoba.com/</t>
+  </si>
+  <si>
+    <t>广场舞、健身舞等大众舞蹈学习平台，含分解动作和音乐配时</t>
+  </si>
+  <si>
+    <t>Codecademy</t>
+  </si>
+  <si>
+    <t>https://www.codecademy.com/</t>
+  </si>
+  <si>
+    <t>交互式编程学习平台，支持 Python、Java 等多语言入门</t>
+  </si>
+  <si>
+    <t>极客时间</t>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/</t>
+  </si>
+  <si>
+    <t>IT 技术学习平台，有编程、架构、云计算等优质课程</t>
+  </si>
+  <si>
+    <t>考研考证学习</t>
+  </si>
+  <si>
+    <t>中公教育网</t>
+  </si>
+  <si>
+    <t>提供考研、考公、职业资格证等培训课程和备考资料</t>
+  </si>
+  <si>
+    <t>华图教育网</t>
+  </si>
+  <si>
+    <t>公务员、事业单位等考试培训平台，含网课和真题解析</t>
+  </si>
+  <si>
+    <t>外语考级学习</t>
+  </si>
+  <si>
+    <t>四六级备考网</t>
+  </si>
+  <si>
+    <t>https://www.cet-46.com/</t>
+  </si>
+  <si>
+    <t>提供英语四六级真题、听力、作文模板等备考资源</t>
+  </si>
+  <si>
+    <t>雅思官网中文站</t>
+  </si>
+  <si>
+    <t>https://www.chinaielts.org/</t>
+  </si>
+  <si>
+    <t>发布雅思考试信息、备考指南和官方资料</t>
+  </si>
+  <si>
+    <t>设计学习网站</t>
+  </si>
+  <si>
+    <t>站酷</t>
+  </si>
+  <si>
+    <t>https://www.zcool.com.cn/</t>
+  </si>
+  <si>
+    <t>设计作品展示和学习平台，含平面设计、UI 设计等教程</t>
+  </si>
+  <si>
+    <t>UI 中国</t>
+  </si>
+  <si>
+    <t>https://www.ui.cn/</t>
+  </si>
+  <si>
+    <t>专注 UI/UX 设计学习，有教程、作品交流和行业动态</t>
+  </si>
+  <si>
+    <t>烹饪学习网站</t>
+  </si>
+  <si>
+    <t>美食天下</t>
+  </si>
+  <si>
+    <t>https://www.meishichina.com/</t>
+  </si>
+  <si>
+    <t>提供家常菜、烘焙、地方菜等教程，含步骤图解和视频教学</t>
+  </si>
+  <si>
+    <t>下厨房</t>
+  </si>
+  <si>
+    <t>https://www.xiachufang.com/</t>
+  </si>
+  <si>
+    <t>汇集海量食谱和烹饪技巧，支持按食材、口味筛选学习</t>
+  </si>
+  <si>
+    <t>演讲口才学习</t>
+  </si>
+  <si>
+    <t>Toastmasters International</t>
+  </si>
+  <si>
+    <t>https://www.toastmasters.org/</t>
+  </si>
+  <si>
+    <t>国际演讲组织官网，提供演讲技巧、领导力培训资源</t>
+  </si>
+  <si>
+    <t>口才训练网</t>
+  </si>
+  <si>
+    <t>https://www.koucai.org/</t>
+  </si>
+  <si>
+    <t>含演讲、辩论、沟通等技巧教程，适合提升表达能力</t>
+  </si>
+  <si>
+    <t>棋类学习网站</t>
+  </si>
+  <si>
+    <t>中国象棋网</t>
+  </si>
+  <si>
+    <t>https://www.zgxqds.com/</t>
+  </si>
+  <si>
+    <t>提供象棋教程、棋谱分析和在线对弈，适合入门和进阶</t>
+  </si>
+  <si>
+    <t>围棋天地</t>
+  </si>
+  <si>
+    <t>https://www.wqtd.com/</t>
+  </si>
+  <si>
+    <t>围棋学习平台，含教程、赛事报道和棋手访谈</t>
+  </si>
+  <si>
+    <t>Memrise</t>
+  </si>
+  <si>
+    <t>https://www.memrise.com/</t>
+  </si>
+  <si>
+    <t>采用记忆卡片 + 实景语境教学，支持多语种，适合词汇快速积累</t>
+  </si>
+  <si>
+    <t>LingQ</t>
+  </si>
+  <si>
+    <t>https://www.lingq.com/</t>
+  </si>
+  <si>
+    <t>通过阅读和听力沉浸学习，支持 100 + 语言，可自定义学习内容</t>
+  </si>
+  <si>
+    <t>沪江小语种网</t>
+  </si>
+  <si>
+    <t>https://language.hujiang.com/</t>
+  </si>
+  <si>
+    <t>涵盖韩语、法语、西班牙语等，有入门到考级的系统资源</t>
+  </si>
+  <si>
+    <t>日语五十音图网</t>
+  </si>
+  <si>
+    <t>https://www.50on.com/</t>
+  </si>
+  <si>
+    <t>专注日语入门，提供五十音图发音、书写、记忆技巧教程</t>
+  </si>
+  <si>
+    <t>德语之声中文网</t>
+  </si>
+  <si>
+    <t>https://www.deutschlandfunk.de/</t>
+  </si>
+  <si>
+    <t>提供德语新闻、听力素材和学习栏目，适合提升德语听说</t>
+  </si>
+  <si>
+    <t>法语学习网</t>
+  </si>
+  <si>
+    <t>https://www.fayuabc.com/</t>
+  </si>
+  <si>
+    <t>含法语基础语法、日常对话、TCF/TEF 考级备考资源</t>
+  </si>
+  <si>
+    <t>Class Central</t>
+  </si>
+  <si>
+    <t>https://www.classcentral.com/</t>
+  </si>
+  <si>
+    <t>提供竖琴、 darbuka 鼓等中外乐器课程，覆盖入门到进阶</t>
+  </si>
+  <si>
+    <t>中国大学 MOOC 竖笛课程</t>
+  </si>
+  <si>
+    <t>https://higher.smartedu.cn/</t>
+  </si>
+  <si>
+    <t>四川音乐学院开设的巴洛克式竖笛入门课，含乐理教学</t>
+  </si>
+  <si>
+    <t>Musictheory.net</t>
+  </si>
+  <si>
+    <t>https://www.musictheory.net/</t>
+  </si>
+  <si>
+    <t>免费乐理学习平台，含音符、节拍、和弦等互动练习</t>
+  </si>
+  <si>
+    <t>Drumeo</t>
+  </si>
+  <si>
+    <t>https://www.drumeo.com/</t>
+  </si>
+  <si>
+    <t>专注架子鼓教学，有零基础课程和进阶技巧视频</t>
+  </si>
+  <si>
+    <t>Ukulele Hunt</t>
+  </si>
+  <si>
+    <t>https://ukulelehunt.com/</t>
+  </si>
+  <si>
+    <t>尤克里里学习平台，提供曲谱、和弦教程和弹唱技巧</t>
+  </si>
+  <si>
+    <t>二胡入门网</t>
+  </si>
+  <si>
+    <t>https://www.erhu123.com/</t>
+  </si>
+  <si>
+    <t>含二胡基础持弓、指法教学，适合传统乐器爱好者入门</t>
+  </si>
+  <si>
+    <t>Phlearn</t>
+  </si>
+  <si>
+    <t>https://phlearn.com/</t>
+  </si>
+  <si>
+    <t>专注 PS 摄影后期教程，有免费基础课和付费进阶内容</t>
+  </si>
+  <si>
+    <t>Tuts+</t>
+  </si>
+  <si>
+    <t>https://tutsplus.com/</t>
+  </si>
+  <si>
+    <t>含摄影前期拍摄、后期修图教程，分类清晰适合系统学习</t>
+  </si>
+  <si>
+    <t>Adobe Learn</t>
+  </si>
+  <si>
+    <t>https://helpx.adobe.com/</t>
+  </si>
+  <si>
+    <t>Adobe 官方摄影工具教程平台，权威讲解 PS、LR 使用技巧</t>
+  </si>
+  <si>
+    <t>视觉中国 500px</t>
+  </si>
+  <si>
+    <t>https://500px.com.cn/</t>
+  </si>
+  <si>
+    <t>优质摄影作品社区，可观摩佳作并获取创作思路</t>
+  </si>
+  <si>
+    <t>蜂鸟网</t>
+  </si>
+  <si>
+    <t>https://www.fengniao.com/</t>
+  </si>
+  <si>
+    <t>老牌摄影门户，含器材评测、拍摄教程和作品交流</t>
+  </si>
+  <si>
+    <t>PetaPixel</t>
+  </si>
+  <si>
+    <t>https://petapixel.com/</t>
+  </si>
+  <si>
+    <t>提供摄影新闻、技巧教程，聚焦行业动态和技术分享</t>
+  </si>
+  <si>
+    <t>书画艺术网</t>
+  </si>
+  <si>
+    <t>http://www.shuhua.yg3.cn/</t>
+  </si>
+  <si>
+    <t>含传统书画技法、名家作品赏析，支持在线临摹互动</t>
+  </si>
+  <si>
+    <t>ArtOf</t>
+  </si>
+  <si>
+    <t>https://www.artof.com/</t>
+  </si>
+  <si>
+    <t>汇集知名画师创作过程，含绘画技巧解析和灵感分享</t>
+  </si>
+  <si>
+    <t>Drawspace</t>
+  </si>
+  <si>
+    <t>https://www.drawspace.com/</t>
+  </si>
+  <si>
+    <t>提供免费绘画入门课程，涵盖素描、水彩等基础技法</t>
+  </si>
+  <si>
+    <t>民间美术课程（智慧树）</t>
+  </si>
+  <si>
+    <t>西安文理学院开设，教授民间美术制作技艺和文化</t>
+  </si>
+  <si>
+    <t>Proko</t>
+  </si>
+  <si>
+    <t>https://www.proko.com/</t>
+  </si>
+  <si>
+    <t>专注人体素描教学，有骨骼、肌肉结构等专业教程</t>
+  </si>
+  <si>
+    <t>插画中国</t>
+  </si>
+  <si>
+    <t>https://www.chahua.org/</t>
+  </si>
+  <si>
+    <t>插画学习平台，含商业插画、儿童插画等教程和作品展示</t>
+  </si>
+  <si>
+    <t>Instructables</t>
+  </si>
+  <si>
+    <t>https://www.instructables.com/</t>
+  </si>
+  <si>
+    <t>全球最大 DIY 社区，提供分步教程，涵盖手工、电子创客等</t>
+  </si>
+  <si>
+    <t>极客工坊</t>
+  </si>
+  <si>
+    <t>http://www.geek-workshop.com/</t>
+  </si>
+  <si>
+    <t>专注 Arduino、树莓派等电子创客项目分享与教学</t>
+  </si>
+  <si>
+    <t>木工爱好者论坛</t>
+  </si>
+  <si>
+    <t>http://www.zuojiaju.com/</t>
+  </si>
+  <si>
+    <t>国内最大木工社区，含工具使用、家具制作教程</t>
+  </si>
+  <si>
+    <t>DFRobot</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com.cn/</t>
+  </si>
+  <si>
+    <t>创客零件商城 + 教程库，适合物联网、机器人制作学习</t>
+  </si>
+  <si>
+    <t>果壳网 DIY 专题</t>
+  </si>
+  <si>
+    <t>https://www.guokr.com/site/diy</t>
+  </si>
+  <si>
+    <t>趣味科学实验 + 生活改造教程，兼具创意和科普性</t>
+  </si>
+  <si>
+    <t>值得买生活家社区</t>
+  </si>
+  <si>
+    <t>https://post.smzdm.com/</t>
+  </si>
+  <si>
+    <t>大量用户分享家居改造、旧物利用等实用 DIY 方案</t>
+  </si>
+  <si>
+    <t>国家高等教育智慧教育平台</t>
+  </si>
+  <si>
+    <t>汇聚高校优质课程，涵盖多学科专业技能和兴趣学习</t>
+  </si>
+  <si>
+    <t>https://study.163.com/</t>
+  </si>
+  <si>
+    <t>含职场技能、兴趣爱好等多类课程，支持直播和录播</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning</t>
+  </si>
+  <si>
+    <t>提供全球优质职业技能课程，适合职场提升和跨界学习</t>
+  </si>
+  <si>
+    <t>书法家园</t>
+  </si>
+  <si>
+    <t>https://www.shufajiayuan.com/</t>
+  </si>
+  <si>
+    <t>含毛笔、硬笔书法教程，提供碑帖资源和临摹指导</t>
+  </si>
+  <si>
+    <t>硬笔书法网</t>
+  </si>
+  <si>
+    <t>https://www.ybsf.org/</t>
+  </si>
+  <si>
+    <t>专注硬笔书法学习，有楷书、行书等技法教学</t>
+  </si>
+  <si>
+    <t>舞蹈中国</t>
+  </si>
+  <si>
+    <t>https://www.dance-china.com/</t>
+  </si>
+  <si>
+    <t>涵盖古典舞、现代舞教程，含基础动作和成品舞分解</t>
+  </si>
+  <si>
+    <t>中国舞蹈网</t>
+  </si>
+  <si>
+    <t>https://www.chinadance.cn/</t>
+  </si>
+  <si>
+    <t>舞蹈资讯和学习平台，有考级课程和教学视频</t>
+  </si>
+  <si>
+    <t>Free Code Camp</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/</t>
+  </si>
+  <si>
+    <t>免费编程学习平台，支持 HTML、JavaScript 等多语言入门</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/</t>
+  </si>
+  <si>
+    <t>算法编程练习平台，含面试真题和解题思路</t>
+  </si>
+  <si>
+    <t>粉笔职教</t>
+  </si>
+  <si>
+    <t>提供考研、考公、职业资格证等在线课程和题库</t>
+  </si>
+  <si>
+    <t>腰果公考</t>
+  </si>
+  <si>
+    <t>https://www.yaoguo.cn/</t>
+  </si>
+  <si>
+    <t>公务员考试学习平台，含网课、真题解析和备考规划</t>
+  </si>
+  <si>
+    <t>托福官网中文站</t>
+  </si>
+  <si>
+    <t>https://toefl.neea.cn/</t>
+  </si>
+  <si>
+    <t>发布托福考试信息、备考指南和官方复习资料</t>
+  </si>
+  <si>
+    <t>德语 DSH 考试网</t>
+  </si>
+  <si>
+    <t>https://www.dsh-test.de/</t>
+  </si>
+  <si>
+    <t>提供 DSH 考级资讯、真题和备考技巧，助力德语考试</t>
+  </si>
+  <si>
+    <t>Designmodo</t>
+  </si>
+  <si>
+    <t>https://designmodo.com/</t>
+  </si>
+  <si>
+    <t>含设计实战教程，涵盖 PS 技巧、UI 设计等内容</t>
+  </si>
+  <si>
+    <t>站酷海洛</t>
+  </si>
+  <si>
+    <t>https://www.hellorf.com/</t>
+  </si>
+  <si>
+    <t>提供设计素材和教程，含图片处理、排版设计等技巧</t>
+  </si>
+  <si>
+    <t>美食杰</t>
+  </si>
+  <si>
+    <t>https://www.meishij.net/</t>
+  </si>
+  <si>
+    <t>提供家常菜、烘焙等教程，含步骤图解和视频教学</t>
+  </si>
+  <si>
+    <t>下厨房 APP 官网</t>
+  </si>
+  <si>
+    <t>海量食谱分享平台，支持按食材、口味筛选学习</t>
+  </si>
+  <si>
+    <t>Toastmasters China</t>
+  </si>
+  <si>
+    <t>https://www.toastmasters.org.cn/</t>
+  </si>
+  <si>
+    <t>国际演讲组织中文站，提供演讲技巧和领导力培训资源</t>
+  </si>
+  <si>
+    <t>围棋联盟</t>
+  </si>
+  <si>
+    <t>https://www.weiqilianmeng.com/</t>
+  </si>
+  <si>
+    <t>含围棋教程、棋谱分析，支持在线对弈和等级考试</t>
+  </si>
+  <si>
+    <t>国际象棋网</t>
+  </si>
+  <si>
+    <t>https://www.iccs.cn/</t>
+  </si>
+  <si>
+    <t>国际象棋学习平台，有入门教程、赛事报道和战术练习</t>
   </si>
 </sst>
 </file>
@@ -4385,10 +6353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="C552" sqref="C552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -9852,6 +11820,3831 @@
       </c>
       <c r="E321" s="11" t="s">
         <v>891</v>
+      </c>
+    </row>
+    <row r="322" ht="34.8" spans="1:5">
+      <c r="A322" s="4">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="323" ht="31.2" spans="1:5">
+      <c r="A323" s="7">
+        <v>322</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="324" ht="31.2" spans="1:5">
+      <c r="A324" s="7">
+        <v>323</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="325" ht="31.2" spans="1:5">
+      <c r="A325" s="7">
+        <v>324</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="326" ht="31.2" spans="1:5">
+      <c r="A326" s="7">
+        <v>325</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="327" ht="31.2" spans="1:5">
+      <c r="A327" s="7">
+        <v>326</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="328" ht="34.8" spans="1:5">
+      <c r="A328" s="7">
+        <v>327</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="329" ht="31.2" spans="1:5">
+      <c r="A329" s="7">
+        <v>328</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="330" ht="31.2" spans="1:5">
+      <c r="A330" s="7">
+        <v>329</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="331" ht="31.2" spans="1:5">
+      <c r="A331" s="7">
+        <v>330</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="332" ht="19.2" spans="1:5">
+      <c r="A332" s="7">
+        <v>331</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="333" ht="31.2" spans="1:5">
+      <c r="A333" s="7">
+        <v>332</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="334" ht="31.2" spans="1:5">
+      <c r="A334" s="7">
+        <v>333</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="335" ht="31.2" spans="1:5">
+      <c r="A335" s="7">
+        <v>334</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="336" ht="31.2" spans="1:5">
+      <c r="A336" s="7">
+        <v>335</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="337" ht="31.2" spans="1:5">
+      <c r="A337" s="7">
+        <v>336</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="338" ht="19.2" spans="1:5">
+      <c r="A338" s="7">
+        <v>337</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="339" ht="31.2" spans="1:5">
+      <c r="A339" s="7">
+        <v>338</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="340" ht="19.2" spans="1:5">
+      <c r="A340" s="7">
+        <v>339</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="341" ht="19.2" spans="1:5">
+      <c r="A341" s="7">
+        <v>340</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="342" ht="34.8" spans="1:5">
+      <c r="A342" s="7">
+        <v>341</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="343" ht="34.8" spans="1:5">
+      <c r="A343" s="7">
+        <v>342</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="344" ht="34.8" spans="1:5">
+      <c r="A344" s="7">
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="345" ht="31.2" spans="1:5">
+      <c r="A345" s="7">
+        <v>344</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="346" ht="31.2" spans="1:5">
+      <c r="A346" s="7">
+        <v>345</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="347" ht="34.8" spans="1:5">
+      <c r="A347" s="7">
+        <v>346</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="348" ht="31.2" spans="1:5">
+      <c r="A348" s="7">
+        <v>347</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="349" ht="38.4" spans="1:5">
+      <c r="A349" s="7">
+        <v>348</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="350" ht="34.8" spans="1:5">
+      <c r="A350" s="7">
+        <v>349</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="351" ht="31.2" spans="1:5">
+      <c r="A351" s="7">
+        <v>350</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="352" ht="19.2" spans="1:5">
+      <c r="A352" s="7">
+        <v>351</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="353" ht="34.8" spans="1:5">
+      <c r="A353" s="7">
+        <v>352</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="354" ht="19.2" spans="1:5">
+      <c r="A354" s="7">
+        <v>353</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="355" ht="31.2" spans="1:5">
+      <c r="A355" s="7">
+        <v>354</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="356" ht="31.2" spans="1:5">
+      <c r="A356" s="7">
+        <v>355</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="357" ht="31.2" spans="1:5">
+      <c r="A357" s="7">
+        <v>356</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="358" ht="31.2" spans="1:5">
+      <c r="A358" s="7">
+        <v>357</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="359" ht="31.2" spans="1:5">
+      <c r="A359" s="7">
+        <v>358</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="360" ht="31.2" spans="1:5">
+      <c r="A360" s="7">
+        <v>359</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="361" ht="19.2" spans="1:5">
+      <c r="A361" s="7">
+        <v>360</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="362" ht="31.2" spans="1:5">
+      <c r="A362" s="7">
+        <v>361</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="363" ht="31.2" spans="1:5">
+      <c r="A363" s="7">
+        <v>362</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="364" ht="31.2" spans="1:5">
+      <c r="A364" s="7">
+        <v>363</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="365" ht="31.2" spans="1:5">
+      <c r="A365" s="7">
+        <v>364</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="366" ht="31.2" spans="1:5">
+      <c r="A366" s="7">
+        <v>365</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="367" ht="31.2" spans="1:5">
+      <c r="A367" s="7">
+        <v>366</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="368" ht="31.2" spans="1:5">
+      <c r="A368" s="7">
+        <v>367</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="369" ht="31.2" spans="1:5">
+      <c r="A369" s="7">
+        <v>368</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="370" ht="34.8" spans="1:5">
+      <c r="A370" s="7">
+        <v>369</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="371" ht="31.2" spans="1:5">
+      <c r="A371" s="7">
+        <v>370</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="372" ht="31.2" spans="1:5">
+      <c r="A372" s="7">
+        <v>371</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="373" ht="31.2" spans="1:5">
+      <c r="A373" s="7">
+        <v>372</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="374" ht="31.2" spans="1:5">
+      <c r="A374" s="7">
+        <v>373</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="375" ht="31.2" spans="1:5">
+      <c r="A375" s="7">
+        <v>374</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="376" ht="19.2" spans="1:5">
+      <c r="A376" s="7">
+        <v>375</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="377" ht="19.2" spans="1:5">
+      <c r="A377" s="7">
+        <v>376</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="378" ht="19.2" spans="1:5">
+      <c r="A378" s="7">
+        <v>377</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="379" ht="19.2" spans="1:5">
+      <c r="A379" s="7">
+        <v>378</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="380" ht="19.2" spans="1:5">
+      <c r="A380" s="7">
+        <v>379</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="381" ht="31.95" spans="1:5">
+      <c r="A381" s="10">
+        <v>380</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="382" ht="34.8" spans="1:5">
+      <c r="A382" s="4">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="383" ht="19.2" spans="1:5">
+      <c r="A383" s="7">
+        <v>382</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="384" ht="34.8" spans="1:5">
+      <c r="A384" s="7">
+        <v>383</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="385" ht="31.2" spans="1:5">
+      <c r="A385" s="7">
+        <v>384</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="386" ht="34.8" spans="1:5">
+      <c r="A386" s="7">
+        <v>385</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="387" ht="19.2" spans="1:5">
+      <c r="A387" s="7">
+        <v>386</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="388" ht="31.2" spans="1:5">
+      <c r="A388" s="7">
+        <v>387</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="389" ht="19.2" spans="1:5">
+      <c r="A389" s="7">
+        <v>388</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="390" ht="19.2" spans="1:5">
+      <c r="A390" s="7">
+        <v>389</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="391" ht="19.2" spans="1:5">
+      <c r="A391" s="7">
+        <v>390</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="392" ht="19.2" spans="1:5">
+      <c r="A392" s="7">
+        <v>391</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D392" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="393" ht="19.2" spans="1:5">
+      <c r="A393" s="7">
+        <v>392</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D393" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="394" ht="19.2" spans="1:5">
+      <c r="A394" s="7">
+        <v>393</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="395" ht="19.2" spans="1:5">
+      <c r="A395" s="7">
+        <v>394</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="396" ht="34.8" spans="1:5">
+      <c r="A396" s="7">
+        <v>395</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="397" ht="19.2" spans="1:5">
+      <c r="A397" s="7">
+        <v>396</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="398" ht="31.2" spans="1:5">
+      <c r="A398" s="7">
+        <v>397</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="399" ht="31.2" spans="1:5">
+      <c r="A399" s="7">
+        <v>398</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="400" ht="19.2" spans="1:5">
+      <c r="A400" s="7">
+        <v>399</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="401" ht="31.2" spans="1:5">
+      <c r="A401" s="7">
+        <v>400</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="402" ht="31.2" spans="1:5">
+      <c r="A402" s="7">
+        <v>401</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="403" ht="31.2" spans="1:5">
+      <c r="A403" s="7">
+        <v>402</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="404" ht="31.2" spans="1:5">
+      <c r="A404" s="7">
+        <v>403</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="405" ht="31.2" spans="1:5">
+      <c r="A405" s="7">
+        <v>404</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="406" ht="19.2" spans="1:5">
+      <c r="A406" s="7">
+        <v>405</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="407" ht="19.2" spans="1:5">
+      <c r="A407" s="7">
+        <v>406</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="408" ht="34.8" spans="1:5">
+      <c r="A408" s="7">
+        <v>407</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="409" ht="34.8" spans="1:5">
+      <c r="A409" s="7">
+        <v>408</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="410" ht="19.2" spans="1:5">
+      <c r="A410" s="7">
+        <v>409</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="411" ht="19.2" spans="1:5">
+      <c r="A411" s="7">
+        <v>410</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="412" ht="19.2" spans="1:5">
+      <c r="A412" s="7">
+        <v>411</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="413" ht="19.2" spans="1:5">
+      <c r="A413" s="7">
+        <v>412</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="414" ht="19.2" spans="1:5">
+      <c r="A414" s="7">
+        <v>413</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="415" ht="31.2" spans="1:5">
+      <c r="A415" s="7">
+        <v>414</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="416" ht="19.2" spans="1:5">
+      <c r="A416" s="7">
+        <v>415</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E416" s="8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="417" ht="19.2" spans="1:5">
+      <c r="A417" s="7">
+        <v>416</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E417" s="8" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="418" ht="19.2" spans="1:5">
+      <c r="A418" s="7">
+        <v>417</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E418" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="419" ht="19.2" spans="1:5">
+      <c r="A419" s="7">
+        <v>418</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="420" ht="19.2" spans="1:5">
+      <c r="A420" s="7">
+        <v>419</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E420" s="8" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="421" ht="19.2" spans="1:5">
+      <c r="A421" s="7">
+        <v>420</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D421" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="422" ht="19.2" spans="1:5">
+      <c r="A422" s="7">
+        <v>421</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D422" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="423" ht="19.2" spans="1:5">
+      <c r="A423" s="7">
+        <v>422</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="424" ht="19.2" spans="1:5">
+      <c r="A424" s="7">
+        <v>423</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="425" ht="19.2" spans="1:5">
+      <c r="A425" s="7">
+        <v>424</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="426" ht="19.2" spans="1:5">
+      <c r="A426" s="7">
+        <v>425</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="427" ht="31.2" spans="1:5">
+      <c r="A427" s="7">
+        <v>426</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D427" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="428" ht="31.2" spans="1:5">
+      <c r="A428" s="7">
+        <v>427</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="429" ht="31.2" spans="1:5">
+      <c r="A429" s="7">
+        <v>428</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="430" ht="31.2" spans="1:5">
+      <c r="A430" s="7">
+        <v>429</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E430" s="8" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="431" ht="31.2" spans="1:5">
+      <c r="A431" s="7">
+        <v>430</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D431" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="432" ht="19.2" spans="1:5">
+      <c r="A432" s="7">
+        <v>431</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D432" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E432" s="8" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="433" ht="19.2" spans="1:5">
+      <c r="A433" s="7">
+        <v>432</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="434" ht="19.2" spans="1:5">
+      <c r="A434" s="7">
+        <v>433</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D434" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="435" ht="19.2" spans="1:5">
+      <c r="A435" s="7">
+        <v>434</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="436" ht="19.2" spans="1:5">
+      <c r="A436" s="7">
+        <v>435</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="437" ht="19.2" spans="1:5">
+      <c r="A437" s="7">
+        <v>436</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="438" ht="19.2" spans="1:5">
+      <c r="A438" s="7">
+        <v>437</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D438" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E438" s="8" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="439" ht="19.2" spans="1:5">
+      <c r="A439" s="7">
+        <v>438</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D439" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="440" ht="19.2" spans="1:5">
+      <c r="A440" s="7">
+        <v>439</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D440" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="441" ht="19.2" spans="1:5">
+      <c r="A441" s="7">
+        <v>440</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D441" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E441" s="8" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="442" ht="31.2" spans="1:5">
+      <c r="A442" s="7">
+        <v>441</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C442" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E442" s="8" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="443" ht="19.2" spans="1:5">
+      <c r="A443" s="7">
+        <v>442</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D443" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="444" ht="19.2" spans="1:5">
+      <c r="A444" s="7">
+        <v>443</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E444" s="8" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="445" ht="19.95" spans="1:5">
+      <c r="A445" s="10">
+        <v>444</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C445" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E445" s="11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="446" ht="34.8" spans="1:5">
+      <c r="A446" s="4">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="447" ht="34.8" spans="1:5">
+      <c r="A447" s="7">
+        <v>446</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="448" ht="38.4" spans="1:5">
+      <c r="A448" s="7">
+        <v>447</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D448" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="449" ht="31.2" spans="1:5">
+      <c r="A449" s="7">
+        <v>448</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="450" ht="31.2" spans="1:5">
+      <c r="A450" s="7">
+        <v>449</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E450" s="8" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="451" ht="31.2" spans="1:5">
+      <c r="A451" s="7">
+        <v>450</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E451" s="8" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="452" ht="31.2" spans="1:5">
+      <c r="A452" s="7">
+        <v>451</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E452" s="8" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="453" ht="34.8" spans="1:5">
+      <c r="A453" s="7">
+        <v>452</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D453" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="454" ht="38.4" spans="1:5">
+      <c r="A454" s="7">
+        <v>453</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D454" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E454" s="8" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="455" ht="31.2" spans="1:5">
+      <c r="A455" s="7">
+        <v>454</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D455" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E455" s="8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="456" ht="31.2" spans="1:5">
+      <c r="A456" s="7">
+        <v>455</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D456" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E456" s="8" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="457" ht="31.2" spans="1:5">
+      <c r="A457" s="7">
+        <v>456</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D457" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E457" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="458" ht="31.2" spans="1:5">
+      <c r="A458" s="7">
+        <v>457</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E458" s="8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="459" ht="31.2" spans="1:5">
+      <c r="A459" s="7">
+        <v>458</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D459" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E459" s="8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="460" ht="31.2" spans="1:5">
+      <c r="A460" s="7">
+        <v>459</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D460" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E460" s="8" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="461" ht="31.2" spans="1:5">
+      <c r="A461" s="7">
+        <v>460</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D461" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E461" s="8" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="462" ht="34.8" spans="1:5">
+      <c r="A462" s="7">
+        <v>461</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E462" s="8" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="463" ht="34.8" spans="1:5">
+      <c r="A463" s="7">
+        <v>462</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="464" ht="31.2" spans="1:5">
+      <c r="A464" s="7">
+        <v>463</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E464" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="465" ht="31.2" spans="1:5">
+      <c r="A465" s="7">
+        <v>464</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E465" s="8" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="466" ht="31.2" spans="1:5">
+      <c r="A466" s="7">
+        <v>465</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E466" s="8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="467" ht="31.2" spans="1:5">
+      <c r="A467" s="7">
+        <v>466</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D467" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="468" ht="31.2" spans="1:5">
+      <c r="A468" s="7">
+        <v>467</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D468" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E468" s="8" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="469" ht="31.2" spans="1:5">
+      <c r="A469" s="7">
+        <v>468</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="470" ht="31.2" spans="1:5">
+      <c r="A470" s="7">
+        <v>469</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E470" s="8" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="471" ht="19.2" spans="1:5">
+      <c r="A471" s="7">
+        <v>470</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="472" ht="31.2" spans="1:5">
+      <c r="A472" s="7">
+        <v>471</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E472" s="8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="473" ht="31.2" spans="1:5">
+      <c r="A473" s="7">
+        <v>472</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D473" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E473" s="8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="474" ht="34.8" spans="1:5">
+      <c r="A474" s="7">
+        <v>473</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E474" s="8" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="475" ht="31.2" spans="1:5">
+      <c r="A475" s="7">
+        <v>474</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D475" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E475" s="8" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="476" ht="38.4" spans="1:5">
+      <c r="A476" s="7">
+        <v>475</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E476" s="8" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="477" ht="31.2" spans="1:5">
+      <c r="A477" s="7">
+        <v>476</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="478" ht="34.8" spans="1:5">
+      <c r="A478" s="7">
+        <v>477</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D478" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E478" s="8" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="479" ht="31.2" spans="1:5">
+      <c r="A479" s="7">
+        <v>478</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="480" ht="31.2" spans="1:5">
+      <c r="A480" s="7">
+        <v>479</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D480" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E480" s="8" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="481" ht="31.2" spans="1:5">
+      <c r="A481" s="7">
+        <v>480</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D481" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="482" ht="31.2" spans="1:5">
+      <c r="A482" s="7">
+        <v>481</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C482" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D482" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E482" s="8" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="483" ht="34.8" spans="1:5">
+      <c r="A483" s="7">
+        <v>482</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E483" s="8" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="484" ht="34.8" spans="1:5">
+      <c r="A484" s="7">
+        <v>483</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E484" s="8" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="485" ht="31.2" spans="1:5">
+      <c r="A485" s="7">
+        <v>484</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="486" ht="31.2" spans="1:5">
+      <c r="A486" s="7">
+        <v>485</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="E486" s="8" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="487" ht="31.2" spans="1:5">
+      <c r="A487" s="7">
+        <v>486</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D487" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="488" ht="19.2" spans="1:5">
+      <c r="A488" s="7">
+        <v>487</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C488" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D488" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E488" s="8" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="489" ht="34.8" spans="1:5">
+      <c r="A489" s="7">
+        <v>488</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="490" ht="34.8" spans="1:5">
+      <c r="A490" s="7">
+        <v>489</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E490" s="8" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="491" ht="31.2" spans="1:5">
+      <c r="A491" s="7">
+        <v>490</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D491" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E491" s="8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="492" ht="31.2" spans="1:5">
+      <c r="A492" s="7">
+        <v>491</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C492" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D492" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E492" s="8" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="493" ht="31.2" spans="1:5">
+      <c r="A493" s="7">
+        <v>492</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E493" s="8" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="494" ht="31.2" spans="1:5">
+      <c r="A494" s="7">
+        <v>493</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E494" s="8" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="495" ht="31.2" spans="1:5">
+      <c r="A495" s="7">
+        <v>494</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D495" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E495" s="8" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="496" ht="19.95" spans="1:5">
+      <c r="A496" s="10">
+        <v>495</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D496" s="12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="497" ht="34.8" spans="1:5">
+      <c r="A497" s="4">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D497" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="498" ht="34.8" spans="1:5">
+      <c r="A498" s="7">
+        <v>497</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C498" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D498" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E498" s="8" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="499" ht="31.2" spans="1:5">
+      <c r="A499" s="7">
+        <v>498</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D499" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E499" s="8" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="500" ht="31.2" spans="1:5">
+      <c r="A500" s="7">
+        <v>499</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C500" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D500" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E500" s="8" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="501" ht="31.2" spans="1:5">
+      <c r="A501" s="7">
+        <v>500</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D501" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E501" s="8" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="502" ht="34.8" spans="1:5">
+      <c r="A502" s="7">
+        <v>501</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C502" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E502" s="8" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="503" ht="34.8" spans="1:5">
+      <c r="A503" s="7">
+        <v>502</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D503" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E503" s="8" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="504" ht="31.2" spans="1:5">
+      <c r="A504" s="7">
+        <v>503</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C504" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D504" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E504" s="8" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="505" ht="31.2" spans="1:5">
+      <c r="A505" s="7">
+        <v>504</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D505" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="506" ht="31.2" spans="1:5">
+      <c r="A506" s="7">
+        <v>505</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C506" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D506" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E506" s="8" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="507" ht="31.2" spans="1:5">
+      <c r="A507" s="7">
+        <v>506</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D507" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E507" s="8" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="508" ht="31.2" spans="1:5">
+      <c r="A508" s="7">
+        <v>507</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C508" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D508" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E508" s="8" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="509" ht="34.8" spans="1:5">
+      <c r="A509" s="7">
+        <v>508</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C509" s="8" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D509" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E509" s="8" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="510" ht="31.2" spans="1:5">
+      <c r="A510" s="7">
+        <v>509</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C510" s="8" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D510" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E510" s="8" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="511" ht="38.4" spans="1:5">
+      <c r="A511" s="7">
+        <v>510</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C511" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D511" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E511" s="8" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="512" ht="31.2" spans="1:5">
+      <c r="A512" s="7">
+        <v>511</v>
+      </c>
+      <c r="B512" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C512" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D512" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E512" s="8" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="513" ht="31.2" spans="1:5">
+      <c r="A513" s="7">
+        <v>512</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C513" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D513" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E513" s="8" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="514" ht="31.2" spans="1:5">
+      <c r="A514" s="7">
+        <v>513</v>
+      </c>
+      <c r="B514" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C514" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D514" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E514" s="8" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="515" ht="31.2" spans="1:5">
+      <c r="A515" s="7">
+        <v>514</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C515" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D515" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E515" s="8" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="516" ht="31.2" spans="1:5">
+      <c r="A516" s="7">
+        <v>515</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C516" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D516" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E516" s="8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="517" ht="31.2" spans="1:5">
+      <c r="A517" s="7">
+        <v>516</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C517" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D517" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E517" s="8" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="518" ht="31.2" spans="1:5">
+      <c r="A518" s="7">
+        <v>517</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C518" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D518" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="E518" s="8" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="519" ht="31.2" spans="1:5">
+      <c r="A519" s="7">
+        <v>518</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D519" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E519" s="8" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="520" ht="31.2" spans="1:5">
+      <c r="A520" s="7">
+        <v>519</v>
+      </c>
+      <c r="B520" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C520" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D520" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E520" s="8" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="521" ht="34.8" spans="1:5">
+      <c r="A521" s="7">
+        <v>520</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E521" s="8" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="522" ht="34.8" spans="1:5">
+      <c r="A522" s="7">
+        <v>521</v>
+      </c>
+      <c r="B522" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C522" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D522" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E522" s="8" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="523" ht="31.2" spans="1:5">
+      <c r="A523" s="7">
+        <v>522</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C523" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E523" s="8" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="524" ht="34.8" spans="1:5">
+      <c r="A524" s="7">
+        <v>523</v>
+      </c>
+      <c r="B524" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C524" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D524" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E524" s="8" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="525" ht="34.8" spans="1:5">
+      <c r="A525" s="7">
+        <v>524</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C525" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D525" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E525" s="8" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="526" ht="34.8" spans="1:5">
+      <c r="A526" s="7">
+        <v>525</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C526" s="8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D526" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E526" s="8" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="527" ht="31.2" spans="1:5">
+      <c r="A527" s="7">
+        <v>526</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C527" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D527" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E527" s="8" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="528" ht="31.2" spans="1:5">
+      <c r="A528" s="7">
+        <v>527</v>
+      </c>
+      <c r="B528" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C528" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E528" s="8" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="529" ht="31.2" spans="1:5">
+      <c r="A529" s="7">
+        <v>528</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D529" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E529" s="8" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="530" ht="31.2" spans="1:5">
+      <c r="A530" s="7">
+        <v>529</v>
+      </c>
+      <c r="B530" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C530" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D530" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E530" s="8" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="531" ht="19.2" spans="1:5">
+      <c r="A531" s="7">
+        <v>530</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C531" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D531" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E531" s="8" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="532" ht="31.2" spans="1:5">
+      <c r="A532" s="7">
+        <v>531</v>
+      </c>
+      <c r="B532" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C532" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D532" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E532" s="8" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="533" ht="19.2" spans="1:5">
+      <c r="A533" s="7">
+        <v>532</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C533" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D533" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E533" s="8" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="534" ht="34.8" spans="1:5">
+      <c r="A534" s="7">
+        <v>533</v>
+      </c>
+      <c r="B534" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C534" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D534" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E534" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="535" ht="19.2" spans="1:5">
+      <c r="A535" s="7">
+        <v>534</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C535" s="8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D535" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E535" s="8" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="536" ht="31.2" spans="1:5">
+      <c r="A536" s="7">
+        <v>535</v>
+      </c>
+      <c r="B536" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C536" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D536" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E536" s="8" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="537" ht="31.2" spans="1:5">
+      <c r="A537" s="7">
+        <v>536</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C537" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E537" s="8" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="538" ht="19.2" spans="1:5">
+      <c r="A538" s="7">
+        <v>537</v>
+      </c>
+      <c r="B538" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C538" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D538" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E538" s="8" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="539" ht="34.8" spans="1:5">
+      <c r="A539" s="7">
+        <v>538</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C539" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D539" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E539" s="8" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="540" ht="34.8" spans="1:5">
+      <c r="A540" s="7">
+        <v>539</v>
+      </c>
+      <c r="B540" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C540" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D540" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E540" s="8" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="541" ht="31.2" spans="1:5">
+      <c r="A541" s="7">
+        <v>540</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C541" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D541" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E541" s="8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="542" ht="31.2" spans="1:5">
+      <c r="A542" s="7">
+        <v>541</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C542" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D542" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E542" s="8" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="543" ht="31.2" spans="1:5">
+      <c r="A543" s="7">
+        <v>542</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C543" s="8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D543" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E543" s="8" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="544" ht="31.2" spans="1:5">
+      <c r="A544" s="7">
+        <v>543</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C544" s="8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D544" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E544" s="8" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="545" ht="31.2" spans="1:5">
+      <c r="A545" s="7">
+        <v>544</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C545" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D545" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E545" s="8" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="546" ht="31.95" spans="1:5">
+      <c r="A546" s="10">
+        <v>545</v>
+      </c>
+      <c r="B546" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D546" s="12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E546" s="11" t="s">
+        <v>1547</v>
       </c>
     </row>
   </sheetData>
@@ -10011,6 +15804,233 @@
     <hyperlink ref="D319" r:id="rId149" display="https://www.eastmoney.com/" tooltip="https://www.eastmoney.com/"/>
     <hyperlink ref="D320" r:id="rId150" display="https://www.taptap.com/" tooltip="https://www.taptap.com/"/>
     <hyperlink ref="D321" r:id="rId151" display="https://store.steampowered.com/" tooltip="https://store.steampowered.com/"/>
+    <hyperlink ref="D322" r:id="rId152" display="https://doubao.com/download.html" tooltip="https://doubao.com/download.html"/>
+    <hyperlink ref="D323" r:id="rId153" display="https://tiangong.cn/" tooltip="https://tiangong.cn/"/>
+    <hyperlink ref="D324" r:id="rId154" display="https://tingwu.aliyun.com/" tooltip="https://tingwu.aliyun.com/"/>
+    <hyperlink ref="D325" r:id="rId155" display="https://www.299sucai.com/" tooltip="https://www.299sucai.com/"/>
+    <hyperlink ref="D326" r:id="rId156" display="https://www.bilibili.com/knowledge/" tooltip="https://www.bilibili.com/knowledge/"/>
+    <hyperlink ref="D327" r:id="rId157" display="http://open.chaoxing.com/" tooltip="http://open.chaoxing.com/"/>
+    <hyperlink ref="D328" r:id="rId158" display="https://open.163.com/" tooltip="https://open.163.com/"/>
+    <hyperlink ref="D329" r:id="rId159" display="http://www.sinoss.net/" tooltip="http://www.sinoss.net/"/>
+    <hyperlink ref="D330" r:id="rId160" display="https://www.sciencenet.cn/" tooltip="https://www.sciencenet.cn/"/>
+    <hyperlink ref="D331" r:id="rId161" display="https://www.hbeducloud.com/" tooltip="https://www.hbeducloud.com/"/>
+    <hyperlink ref="D332" r:id="rId162" display="https://www.sneduyun.com/" tooltip="https://www.sneduyun.com/"/>
+    <hyperlink ref="D333" r:id="rId163" display="http://www.cps-net.org.cn/" tooltip="http://www.cps-net.org.cn/"/>
+    <hyperlink ref="D334" r:id="rId164" display="https://www.chemsoc.org.cn/" tooltip="https://www.chemsoc.org.cn/"/>
+    <hyperlink ref="D335" r:id="rId165" display="http://www.cbdio.com/" tooltip="http://www.cbdio.com/"/>
+    <hyperlink ref="D336" r:id="rId166" display="https://www.duia.com/" tooltip="https://www.duia.com/"/>
+    <hyperlink ref="D337" r:id="rId167" display="https://www.duia.com/classroom" tooltip="https://www.duia.com/classroom"/>
+    <hyperlink ref="D338" r:id="rId168" display="https://www.designdh.com/" tooltip="https://www.designdh.com/"/>
+    <hyperlink ref="D339" r:id="rId169" display="https://www.pm265.com/" tooltip="https://www.pm265.com/"/>
+    <hyperlink ref="D340" r:id="rId170" display="https://gitbook.cn/" tooltip="https://gitbook.cn/"/>
+    <hyperlink ref="D341" r:id="rId171" display="https://my.oschina.net/blog" tooltip="https://my.oschina.net/blog"/>
+    <hyperlink ref="D342" r:id="rId172" display="https://stackoverflow.com.cn/" tooltip="https://stackoverflow.com.cn/"/>
+    <hyperlink ref="D343" r:id="rId173" display="http://www.wofficebox.com/" tooltip="http://www.wofficebox.com/"/>
+    <hyperlink ref="D344" r:id="rId174" display="https://tools.pdf24.org/zh/" tooltip="https://tools.pdf24.org/zh/"/>
+    <hyperlink ref="D345" r:id="rId175" display="https://www.pc6.com/" tooltip="https://www.pc6.com/"/>
+    <hyperlink ref="D346" r:id="rId176" display="https://www.sashaye.com/" tooltip="https://www.sashaye.com/"/>
+    <hyperlink ref="D347" r:id="rId177" display="https://www.bangongziyuan.com/" tooltip="https://www.bangongziyuan.com/"/>
+    <hyperlink ref="D348" r:id="rId178" display="https://www.aisucai.com/" tooltip="https://www.aisucai.com/"/>
+    <hyperlink ref="D349" r:id="rId179" display="https://kit.svelte.dev/" tooltip="https://kit.svelte.dev/"/>
+    <hyperlink ref="D350" r:id="rId180" display="https://remix.run/" tooltip="https://remix.run/"/>
+    <hyperlink ref="D351" r:id="rId181" display="https://qwik.builder.io/" tooltip="https://qwik.builder.io/"/>
+    <hyperlink ref="D352" r:id="rId182" display="https://fastapi.tiangong.top/" tooltip="https://fastapi.tiangong.top/"/>
+    <hyperlink ref="D353" r:id="rId183" display="https://nestjs.com/" tooltip="https://nestjs.com/"/>
+    <hyperlink ref="D354" r:id="rId184" display="https://spring.io/projects/spring - cloud" tooltip="https://spring.io/projects/spring"/>
+    <hyperlink ref="D355" r:id="rId185" display="https://www.jisuanke.com/contest" tooltip="https://www.jisuanke.com/contest"/>
+    <hyperlink ref="D356" r:id="rId186" display="https://www.luogu.com.cn/" tooltip="https://www.luogu.com.cn/"/>
+    <hyperlink ref="D357" r:id="rId187" display="https://www.anquanke.com/" tooltip="https://www.anquanke.com/"/>
+    <hyperlink ref="D358" r:id="rId188" display="https://www.bugbank.cn/" tooltip="https://www.bugbank.cn/"/>
+    <hyperlink ref="D359" r:id="rId128" display="https:// 学院.zhipin.com/" tooltip="https://zhipin.com/"/>
+    <hyperlink ref="D360" r:id="rId189" display="https://learning.liepin.com/" tooltip="https://learning.liepin.com/"/>
+    <hyperlink ref="D361" r:id="rId190" display="https://edu.51cto.com/" tooltip="https://edu.51cto.com/"/>
+    <hyperlink ref="D362" r:id="rId191" display="https://bbs.kaoyan.com/" tooltip="https://bbs.kaoyan.com/"/>
+    <hyperlink ref="D363" r:id="rId192" display="https://bbs.qzzn.com/" tooltip="https://bbs.qzzn.com/"/>
+    <hyperlink ref="D364" r:id="rId193" display="https://www.britishcouncil.cn/english/online" tooltip="https://www.britishcouncil.cn/english/online"/>
+    <hyperlink ref="D365" r:id="rId194" display="https://www.ef.com.cn/englishfirst/online-courses/" tooltip="https://www.ef.com.cn/englishfirst/online-courses/"/>
+    <hyperlink ref="D366" r:id="rId195" display="https://www.xgnyy.com/" tooltip="https://www.xgnyy.com/"/>
+    <hyperlink ref="D367" r:id="rId196" display="https://www.wofficebox.com/online/" tooltip="https://www.wofficebox.com/online/"/>
+    <hyperlink ref="D368" r:id="rId197" display="https://www.figma.com/" tooltip="https://www.figma.com/"/>
+    <hyperlink ref="D369" r:id="rId198" display="https://www.gaoding.com/" tooltip="https://www.gaoding.com/"/>
+    <hyperlink ref="D370" r:id="rId199" display="https://www.egouz.com/" tooltip="https://www.egouz.com/"/>
+    <hyperlink ref="D371" r:id="rId200" display="https://tools.kalvinbg.cn/" tooltip="https://tools.kalvinbg.cn/"/>
+    <hyperlink ref="D372" r:id="rId201" display="https://tubitv.com/" tooltip="https://tubitv.com/"/>
+    <hyperlink ref="D373" r:id="rId202" display="https://pluto.tv/" tooltip="https://pluto.tv/"/>
+    <hyperlink ref="D374" r:id="rId203" display="https://www.crackle.com/" tooltip="https://www.crackle.com/"/>
+    <hyperlink ref="D375" r:id="rId204" display="https://www.popcornflix.com/" tooltip="https://www.popcornflix.com/"/>
+    <hyperlink ref="D376" r:id="rId205" display="https://www.vudu.com/content/movies/free" tooltip="https://www.vudu.com/content/movies/free"/>
+    <hyperlink ref="D377" r:id="rId206" display="https://ishare.iask.sina.com.cn/" tooltip="https://ishare.iask.sina.com.cn/"/>
+    <hyperlink ref="D378" r:id="rId207" display="https://www.freebook.cn/" tooltip="https://www.freebook.cn/"/>
+    <hyperlink ref="D379" r:id="rId208" display="https://new.shuge.org/" tooltip="https://new.shuge.org/"/>
+    <hyperlink ref="D380" r:id="rId209" display="https://www.thepaper.cn/" tooltip="https://www.thepaper.cn/"/>
+    <hyperlink ref="D381" r:id="rId210" display="https://www.jiemian.com/" tooltip="https://www.jiemian.com/"/>
+    <hyperlink ref="D382" r:id="rId211" display="https://doubao.com/academic/" tooltip="https://doubao.com/academic/"/>
+    <hyperlink ref="D383" r:id="rId212" display="https://academic.tiangong.cn/" tooltip="https://academic.tiangong.cn/"/>
+    <hyperlink ref="D384" r:id="rId213" display="https://openai.com/api/" tooltip="https://openai.com/api/"/>
+    <hyperlink ref="D385" r:id="rId43" display="https://www.coursera.org/" tooltip="https://www.coursera.org/"/>
+    <hyperlink ref="D386" r:id="rId44" display="https://www.edx.org/" tooltip="https://www.edx.org/"/>
+    <hyperlink ref="D387" r:id="rId214" display="https://ebs.unipus.cn/" tooltip="https://ebs.unipus.cn/"/>
+    <hyperlink ref="D388" r:id="rId215" display="https://video.chaoxing.com/" tooltip="https://video.chaoxing.com/"/>
+    <hyperlink ref="D389" r:id="rId216" display="https://www.med66.com/" tooltip="https://www.med66.com/"/>
+    <hyperlink ref="D390" r:id="rId217" display="https://www.chinalawedu.com/" tooltip="https://www.chinalawedu.com/"/>
+    <hyperlink ref="D391" r:id="rId218" display="https://www.fjedu.cn/" tooltip="https://www.fjedu.cn/"/>
+    <hyperlink ref="D392" r:id="rId219" display="https://www.sdei.edu.cn/" tooltip="https://www.sdei.edu.cn/"/>
+    <hyperlink ref="D393" r:id="rId220" display="http://www.astron.ac.cn/" tooltip="http://www.astron.ac.cn/"/>
+    <hyperlink ref="D394" r:id="rId221" display="http://www.gmc.org.cn/" tooltip="http://www.gmc.org.cn/"/>
+    <hyperlink ref="D395" r:id="rId222" display="https://www.chinacses.org/" tooltip="https://www.chinacses.org/"/>
+    <hyperlink ref="D396" r:id="rId53" display="https://www.koolearn.com/" tooltip="https://www.koolearn.com/"/>
+    <hyperlink ref="D397" r:id="rId54" display="https://www.xueersi.com/" tooltip="https://www.xueersi.com/"/>
+    <hyperlink ref="D398" r:id="rId223" display="https://www.sjdr.com/" tooltip="https://www.sjdr.com/"/>
+    <hyperlink ref="D399" r:id="rId224" display="https://www.yunyingdaohang.com/" tooltip="https://www.yunyingdaohang.com/"/>
+    <hyperlink ref="C400" r:id="rId225" display="Coding.net" tooltip="https://coding.net/"/>
+    <hyperlink ref="D400" r:id="rId225" display="https://coding.net/" tooltip="https://coding.net/"/>
+    <hyperlink ref="D401" r:id="rId60" display="https://www.oschina.net/" tooltip="https://www.oschina.net/"/>
+    <hyperlink ref="D402" r:id="rId226" display="https://segmentfault.com/" tooltip="https://segmentfault.com/"/>
+    <hyperlink ref="D403" r:id="rId227" display="https://sj.qq.com/" tooltip="https://sj.qq.com/"/>
+    <hyperlink ref="D404" r:id="rId228" display="https://appgallery.huawei.com/" tooltip="https://appgallery.huawei.com/"/>
+    <hyperlink ref="D405" r:id="rId229" display="https://www.25pp.com/" tooltip="https://www.25pp.com/"/>
+    <hyperlink ref="D406" r:id="rId230" display="https://www.pexels.com/" tooltip="https://www.pexels.com/"/>
+    <hyperlink ref="D407" r:id="rId231" display="https://unsplash.com/" tooltip="https://unsplash.com/"/>
+    <hyperlink ref="D408" r:id="rId232" display="https://www.51miz.com/" tooltip="https://www.51miz.com/"/>
+    <hyperlink ref="D409" r:id="rId233" display="https://alpinejs.dev/" tooltip="https://alpinejs.dev/"/>
+    <hyperlink ref="D410" r:id="rId234" display="https://preactjs.com/" tooltip="https://preactjs.com/"/>
+    <hyperlink ref="D411" r:id="rId235" display="https://lit.dev/" tooltip="https://lit.dev/"/>
+    <hyperlink ref="D412" r:id="rId236" display="https://flask.palletsprojects.com/" tooltip="https://flask.palletsprojects.com/"/>
+    <hyperlink ref="D413" r:id="rId72" display="https://expressjs.com/" tooltip="https://expressjs.com/"/>
+    <hyperlink ref="D414" r:id="rId237" display="https://spring.io/projects/spring-boot" tooltip="https://spring.io/projects/spring-boot"/>
+    <hyperlink ref="D415" r:id="rId238" display="https://codeforces.com/" tooltip="https://codeforces.com/"/>
+    <hyperlink ref="D416" r:id="rId239" display="https://atcoder.jp/" tooltip="https://atcoder.jp/"/>
+    <hyperlink ref="D417" r:id="rId240" display="https://bbs.2cto.com/" tooltip="https://bbs.2cto.com/"/>
+    <hyperlink ref="D418" r:id="rId241" display="https://www.t00ls.net/" tooltip="https://www.t00ls.net/"/>
+    <hyperlink ref="D419" r:id="rId242" display="https://bbs.pediy.com/" tooltip="https://bbs.pediy.com/"/>
+    <hyperlink ref="D420" r:id="rId243" display="https://learning.linkedin.com/" tooltip="https://learning.linkedin.com/"/>
+    <hyperlink ref="D421" r:id="rId244" display="https://www.hrloo.com/" tooltip="https://www.hrloo.com/"/>
+    <hyperlink ref="D422" r:id="rId245" display="https://www.buildhr.com/study.html" tooltip="https://www.buildhr.com/study.html"/>
+    <hyperlink ref="D423" r:id="rId246" display="https://www.fenbi.com/" tooltip="https://www.fenbi.com/"/>
+    <hyperlink ref="D424" r:id="rId247" display="https://v.huatu.com/" tooltip="https://v.huatu.com/"/>
+    <hyperlink ref="D425" r:id="rId86" display="https://www.hujiang.com/" tooltip="https://www.hujiang.com/"/>
+    <hyperlink ref="D426" r:id="rId84" display="https://www.shanbay.com/" tooltip="https://www.shanbay.com/"/>
+    <hyperlink ref="D427" r:id="rId248" display="https://www.wondershare.cn/pdfelement/" tooltip="https://www.wondershare.cn/pdfelement/"/>
+    <hyperlink ref="D428" r:id="rId249" display="https://www.wps.cn/" tooltip="https://www.wps.cn/"/>
+    <hyperlink ref="D429" r:id="rId250" display="https://shimo.im/" tooltip="https://shimo.im/"/>
+    <hyperlink ref="D430" r:id="rId92" display="https://docs.qq.com/" tooltip="https://docs.qq.com/"/>
+    <hyperlink ref="D431" r:id="rId251" display="https://www.imdb.com/" tooltip="https://www.imdb.com/"/>
+    <hyperlink ref="D432" r:id="rId252" display="https://www.rottentomatoes.com/" tooltip="https://www.rottentomatoes.com/"/>
+    <hyperlink ref="D433" r:id="rId253" display="https://movie.douban.com/" tooltip="https://movie.douban.com/"/>
+    <hyperlink ref="D434" r:id="rId254" display="https://www.guoxuedashi.net/" tooltip="https://www.guoxuedashi.net/"/>
+    <hyperlink ref="D435" r:id="rId255" display="https://www.gushiwen.org/" tooltip="https://www.gushiwen.org/"/>
+    <hyperlink ref="D436" r:id="rId256" display="https://www.shuchong.com/" tooltip="https://www.shuchong.com/"/>
+    <hyperlink ref="D437" r:id="rId257" display="https://www.bbc.com/news/" tooltip="https://www.bbc.com/news/"/>
+    <hyperlink ref="D438" r:id="rId258" display="https://edition.cnn.com/" tooltip="https://edition.cnn.com/"/>
+    <hyperlink ref="D439" r:id="rId259" display="https://www.nytimes.com/" tooltip="https://www.nytimes.com/"/>
+    <hyperlink ref="D440" r:id="rId260" display="https://www.reuters.com/" tooltip="https://www.reuters.com/"/>
+    <hyperlink ref="D441" r:id="rId261" display="https://boomcatcher.com/" tooltip="https://boomcatcher.com/"/>
+    <hyperlink ref="D442" r:id="rId262" display="https://frequency2156.com/" tooltip="https://frequency2156.com/"/>
+    <hyperlink ref="D443" r:id="rId263" display="https://toutai.cc/" tooltip="https://toutai.cc/"/>
+    <hyperlink ref="D444" r:id="rId264" display="https://openpuppies.com/" tooltip="https://openpuppies.com/"/>
+    <hyperlink ref="D445" r:id="rId265" display="https://littlealchemy.com/" tooltip="https://littlealchemy.com/"/>
+    <hyperlink ref="D446" r:id="rId266" display="https://www.rosettastone.com/" tooltip="https://www.rosettastone.com/"/>
+    <hyperlink ref="D447" r:id="rId267" display="https://www.duolingo.com/" tooltip="https://www.duolingo.com/"/>
+    <hyperlink ref="D448" r:id="rId268" display="https://www.babbel.com/" tooltip="https://www.babbel.com/"/>
+    <hyperlink ref="D449" r:id="rId269" display="https://class.hujiang.com/" tooltip="https://class.hujiang.com/"/>
+    <hyperlink ref="D450" r:id="rId270" display="https://ke.youdao.com/" tooltip="https://ke.youdao.com/"/>
+    <hyperlink ref="D451" r:id="rId271" display="https://dict.eudic.net/tingli/" tooltip="https://dict.eudic.net/tingli/"/>
+    <hyperlink ref="D452" r:id="rId272" display="https://www.deyuabc.com/" tooltip="https://www.deyuabc.com/"/>
+    <hyperlink ref="D453" r:id="rId273" display="https://www.jpstudy.cn/" tooltip="https://www.jpstudy.cn/"/>
+    <hyperlink ref="D454" r:id="rId274" display="https://www.quthing.com/#/"/>
+    <hyperlink ref="D455" r:id="rId275" display="https://www.quthing.com/dongyinlv/" tooltip="https://www.quthing.com/dongyinlv/"/>
+    <hyperlink ref="D456" r:id="rId276" display="https://www.quthing.com/kaisang/" tooltip="https://www.quthing.com/kaisang/"/>
+    <hyperlink ref="D457" r:id="rId277" display="https://www.tan8.com/" tooltip="https://www.tan8.com/"/>
+    <hyperlink ref="D458" r:id="rId278" display="https://www.ccom.edu.cn/kaoji/" tooltip="https://www.ccom.edu.cn/kaoji/"/>
+    <hyperlink ref="D459" r:id="rId279" display="https://www.jitashe.org/" tooltip="https://www.jitashe.org/"/>
+    <hyperlink ref="D460" r:id="rId280" display="https://1x.com/" tooltip="https://1x.com/"/>
+    <hyperlink ref="D461" r:id="rId281" display="https://www.nationalgeographic.com/" tooltip="https://www.nationalgeographic.com/"/>
+    <hyperlink ref="D462" r:id="rId282" display="https://www.magnumphotos.com/" tooltip="https://www.magnumphotos.com/"/>
+    <hyperlink ref="D463" r:id="rId283" display="https://www.fotomen.cn/" tooltip="https://www.fotomen.cn/"/>
+    <hyperlink ref="D464" r:id="rId284" display="https://tuchong.com/" tooltip="https://tuchong.com/"/>
+    <hyperlink ref="D465" r:id="rId285" display="https://www.xitek.com/" tooltip="https://www.xitek.com/"/>
+    <hyperlink ref="D466" r:id="rId286" display="https://www.skillshare.com/" tooltip="https://www.skillshare.com/"/>
+    <hyperlink ref="D467" r:id="rId287" display="https://gaogao.sucaihuo.com/" tooltip="https://gaogao.sucaihuo.com/"/>
+    <hyperlink ref="D468" r:id="rId288" display="https://www.artstation.com/" tooltip="https://www.artstation.com/"/>
+    <hyperlink ref="D469" r:id="rId289" display="https://www.huaba.me/" tooltip="https://www.huaba.me/"/>
+    <hyperlink ref="D470" r:id="rId290" display="https://www.meishubao.com/" tooltip="https://www.meishubao.com/"/>
+    <hyperlink ref="D471" r:id="rId291" display="https://www.caa.edu.cn/xyjy/" tooltip="https://www.caa.edu.cn/xyjy/"/>
+    <hyperlink ref="D472" r:id="rId292" display="https://xzy.mohrss.gov.cn/" tooltip="https://xzy.mohrss.gov.cn/"/>
+    <hyperlink ref="D473" r:id="rId293" display="https://osta.gpy.org.cn/web.html" tooltip="https://osta.gpy.org.cn/web.html"/>
+    <hyperlink ref="D474" r:id="rId190" display="https://edu.51cto.com/" tooltip="https://edu.51cto.com/"/>
+    <hyperlink ref="D475" r:id="rId294" display="https://ke.qq.com/" tooltip="https://ke.qq.com/"/>
+    <hyperlink ref="D476" r:id="rId295" display="http://www.shturl.cc/f61cb8807bd7cfe3cb0d71c47b79f5f8" tooltip="http://www.shturl.cc/f61cb8807bd7cfe3cb0d71c47b79f5f8"/>
+    <hyperlink ref="D477" r:id="rId296" display="https://www.shougongke.com/" tooltip="https://www.shougongke.com/"/>
+    <hyperlink ref="D478" r:id="rId297" display="https://www.rouding.com/" tooltip="https://www.rouding.com/"/>
+    <hyperlink ref="D479" r:id="rId298" display="https://www.shufazidian.com/" tooltip="https://www.shufazidian.com/"/>
+    <hyperlink ref="D480" r:id="rId299" display="https://www.shufa.com/" tooltip="https://www.shufa.com/"/>
+    <hyperlink ref="D481" r:id="rId300" display="https://www.wudao.com/" tooltip="https://www.wudao.com/"/>
+    <hyperlink ref="D482" r:id="rId301" display="https://www.tiaoba.com/" tooltip="https://www.tiaoba.com/"/>
+    <hyperlink ref="D483" r:id="rId302" display="https://www.codecademy.com/" tooltip="https://www.codecademy.com/"/>
+    <hyperlink ref="D484" r:id="rId303" display="https://time.geekbang.org/" tooltip="https://time.geekbang.org/"/>
+    <hyperlink ref="D485" r:id="rId81" display="https://www.offcn.com/" tooltip="https://www.offcn.com/"/>
+    <hyperlink ref="D486" r:id="rId82" display="https://www.huatu.com/" tooltip="https://www.huatu.com/"/>
+    <hyperlink ref="D487" r:id="rId304" display="https://www.cet-46.com/" tooltip="https://www.cet-46.com/"/>
+    <hyperlink ref="D488" r:id="rId305" display="https://www.chinaielts.org/" tooltip="https://www.chinaielts.org/"/>
+    <hyperlink ref="D489" r:id="rId306" display="https://www.zcool.com.cn/" tooltip="https://www.zcool.com.cn/"/>
+    <hyperlink ref="D490" r:id="rId307" display="https://www.ui.cn/" tooltip="https://www.ui.cn/"/>
+    <hyperlink ref="D491" r:id="rId308" display="https://www.meishichina.com/" tooltip="https://www.meishichina.com/"/>
+    <hyperlink ref="D492" r:id="rId309" display="https://www.xiachufang.com/" tooltip="https://www.xiachufang.com/"/>
+    <hyperlink ref="D493" r:id="rId310" display="https://www.toastmasters.org/" tooltip="https://www.toastmasters.org/"/>
+    <hyperlink ref="D494" r:id="rId311" display="https://www.koucai.org/" tooltip="https://www.koucai.org/"/>
+    <hyperlink ref="D495" r:id="rId312" display="https://www.zgxqds.com/" tooltip="https://www.zgxqds.com/"/>
+    <hyperlink ref="D496" r:id="rId313" display="https://www.wqtd.com/" tooltip="https://www.wqtd.com/"/>
+    <hyperlink ref="D497" r:id="rId314" display="https://www.memrise.com/" tooltip="https://www.memrise.com/"/>
+    <hyperlink ref="D498" r:id="rId315" display="https://www.lingq.com/" tooltip="https://www.lingq.com/"/>
+    <hyperlink ref="D499" r:id="rId316" display="https://language.hujiang.com/" tooltip="https://language.hujiang.com/"/>
+    <hyperlink ref="D500" r:id="rId317" display="https://www.50on.com/" tooltip="https://www.50on.com/"/>
+    <hyperlink ref="D501" r:id="rId318" display="https://www.deutschlandfunk.de/" tooltip="https://www.deutschlandfunk.de/"/>
+    <hyperlink ref="D502" r:id="rId319" display="https://www.fayuabc.com/" tooltip="https://www.fayuabc.com/"/>
+    <hyperlink ref="D503" r:id="rId320" display="https://www.classcentral.com/" tooltip="https://www.classcentral.com/"/>
+    <hyperlink ref="D504" r:id="rId321" display="https://higher.smartedu.cn/" tooltip="https://higher.smartedu.cn/"/>
+    <hyperlink ref="C505" r:id="rId322" display="Musictheory.net" tooltip="https://musictheory.net/"/>
+    <hyperlink ref="D505" r:id="rId323" display="https://www.musictheory.net/" tooltip="https://www.musictheory.net/"/>
+    <hyperlink ref="D506" r:id="rId324" display="https://www.drumeo.com/" tooltip="https://www.drumeo.com/"/>
+    <hyperlink ref="D507" r:id="rId325" display="https://ukulelehunt.com/" tooltip="https://ukulelehunt.com/"/>
+    <hyperlink ref="D508" r:id="rId326" display="https://www.erhu123.com/" tooltip="https://www.erhu123.com/"/>
+    <hyperlink ref="D509" r:id="rId327" display="https://phlearn.com/" tooltip="https://phlearn.com/"/>
+    <hyperlink ref="D510" r:id="rId328" display="https://tutsplus.com/" tooltip="https://tutsplus.com/"/>
+    <hyperlink ref="D511" r:id="rId329" display="https://helpx.adobe.com/" tooltip="https://helpx.adobe.com/"/>
+    <hyperlink ref="D512" r:id="rId330" display="https://500px.com.cn/" tooltip="https://500px.com.cn/"/>
+    <hyperlink ref="D513" r:id="rId331" display="https://www.fengniao.com/" tooltip="https://www.fengniao.com/"/>
+    <hyperlink ref="D514" r:id="rId332" display="https://petapixel.com/" tooltip="https://petapixel.com/"/>
+    <hyperlink ref="D515" r:id="rId333" display="http://www.shuhua.yg3.cn/" tooltip="http://www.shuhua.yg3.cn/"/>
+    <hyperlink ref="D516" r:id="rId334" display="https://www.artof.com/" tooltip="https://www.artof.com/"/>
+    <hyperlink ref="D517" r:id="rId335" display="https://www.drawspace.com/" tooltip="https://www.drawspace.com/"/>
+    <hyperlink ref="D518" r:id="rId103" display="https://www.zhihuishu.com/" tooltip="https://www.zhihuishu.com/"/>
+    <hyperlink ref="D519" r:id="rId336" display="https://www.proko.com/" tooltip="https://www.proko.com/"/>
+    <hyperlink ref="D520" r:id="rId337" display="https://www.chahua.org/" tooltip="https://www.chahua.org/"/>
+    <hyperlink ref="D521" r:id="rId338" display="https://www.instructables.com/" tooltip="https://www.instructables.com/"/>
+    <hyperlink ref="D522" r:id="rId339" display="http://www.geek-workshop.com/" tooltip="http://www.geek-workshop.com/"/>
+    <hyperlink ref="D523" r:id="rId340" display="http://www.zuojiaju.com/" tooltip="http://www.zuojiaju.com/"/>
+    <hyperlink ref="D524" r:id="rId341" display="https://www.dfrobot.com.cn/" tooltip="https://www.dfrobot.com.cn/"/>
+    <hyperlink ref="D525" r:id="rId342" display="https://www.guokr.com/site/diy" tooltip="https://www.guokr.com/site/diy"/>
+    <hyperlink ref="D526" r:id="rId343" display="https://post.smzdm.com/" tooltip="https://post.smzdm.com/"/>
+    <hyperlink ref="D527" r:id="rId321" display="https://higher.smartedu.cn/" tooltip="https://higher.smartedu.cn/"/>
+    <hyperlink ref="D528" r:id="rId344" display="https://study.163.com/" tooltip="https://study.163.com/"/>
+    <hyperlink ref="D529" r:id="rId78" display="https://www.linkedin.com/learning/" tooltip="https://www.linkedin.com/learning/"/>
+    <hyperlink ref="D530" r:id="rId345" display="https://www.shufajiayuan.com/" tooltip="https://www.shufajiayuan.com/"/>
+    <hyperlink ref="D531" r:id="rId346" display="https://www.ybsf.org/" tooltip="https://www.ybsf.org/"/>
+    <hyperlink ref="D532" r:id="rId347" display="https://www.dance-china.com/" tooltip="https://www.dance-china.com/"/>
+    <hyperlink ref="D533" r:id="rId348" display="https://www.chinadance.cn/" tooltip="https://www.chinadance.cn/"/>
+    <hyperlink ref="D534" r:id="rId349" display="https://www.freecodecamp.org/" tooltip="https://www.freecodecamp.org/"/>
+    <hyperlink ref="D535" r:id="rId350" display="https://leetcode-cn.com/" tooltip="https://leetcode-cn.com/"/>
+    <hyperlink ref="D536" r:id="rId83" display="https://fenbi.com/" tooltip="https://fenbi.com/"/>
+    <hyperlink ref="D537" r:id="rId351" display="https://www.yaoguo.cn/" tooltip="https://www.yaoguo.cn/"/>
+    <hyperlink ref="D538" r:id="rId352" display="https://toefl.neea.cn/" tooltip="https://toefl.neea.cn/"/>
+    <hyperlink ref="D539" r:id="rId353" display="https://www.dsh-test.de/" tooltip="https://www.dsh-test.de/"/>
+    <hyperlink ref="D540" r:id="rId354" display="https://designmodo.com/" tooltip="https://designmodo.com/"/>
+    <hyperlink ref="D541" r:id="rId355" display="https://www.hellorf.com/" tooltip="https://www.hellorf.com/"/>
+    <hyperlink ref="D542" r:id="rId356" display="https://www.meishij.net/" tooltip="https://www.meishij.net/"/>
+    <hyperlink ref="D543" r:id="rId309" display="https://www.xiachufang.com/" tooltip="https://www.xiachufang.com/"/>
+    <hyperlink ref="D544" r:id="rId357" display="https://www.toastmasters.org.cn/" tooltip="https://www.toastmasters.org.cn/"/>
+    <hyperlink ref="D545" r:id="rId358" display="https://www.weiqilianmeng.com/" tooltip="https://www.weiqilianmeng.com/"/>
+    <hyperlink ref="D546" r:id="rId359" display="https://www.iccs.cn/" tooltip="https://www.iccs.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
